--- a/TCCWEBAPP/TCC.xlsx
+++ b/TCCWEBAPP/TCC.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,18 @@
       <c r="C1" t="str">
         <v>Year</v>
       </c>
+      <c r="D1" t="str">
+        <v>Outcome Of Case</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Type of Issue</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Gender of Appellant</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Gender of Judge</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -423,6 +435,18 @@
       <c r="C2" t="str">
         <v>2003</v>
       </c>
+      <c r="D2" t="str">
+        <v>Losing</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Income Tax</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Female</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Female</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -434,6 +458,18 @@
       <c r="C3" t="str">
         <v>2003</v>
       </c>
+      <c r="D3" t="str">
+        <v>Losing</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Employment Insurance Act</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Male</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Male</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -445,6 +481,18 @@
       <c r="C4" t="str">
         <v>2003</v>
       </c>
+      <c r="D4" t="str">
+        <v>Losing</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Income Tax</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Male</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -470,7 +518,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TCCWEBAPP/TCC.xlsx
+++ b/TCCWEBAPP/TCC.xlsx
@@ -485,7 +485,7 @@
         <v>Losing</v>
       </c>
       <c r="E4" t="str">
-        <v>Income Tax</v>
+        <v>Income tax</v>
       </c>
       <c r="F4" t="str">
         <v>Male</v>
@@ -504,6 +504,18 @@
       <c r="C5" t="str">
         <v>2003</v>
       </c>
+      <c r="D5" t="str">
+        <v>Partially Winning</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Income Tax</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Male</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Male</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -514,6 +526,18 @@
       </c>
       <c r="C6" t="str">
         <v>2003</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Losing</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Income Tax</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Female</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Male</v>
       </c>
     </row>
   </sheetData>

--- a/TCCWEBAPP/TCC.xlsx
+++ b/TCCWEBAPP/TCC.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,10 +419,22 @@
         <v>Type of Issue</v>
       </c>
       <c r="F1" t="str">
+        <v>Inital Comparison</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Duration of the Case</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Type of Tax Payer</v>
+      </c>
+      <c r="I1" t="str">
         <v>Gender of Appellant</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>Gender of Judge</v>
+      </c>
+      <c r="K1" t="str">
+        <v>URL</v>
       </c>
     </row>
     <row r="2">
@@ -441,108 +453,125 @@
       <c r="E2" t="str">
         <v>Income Tax</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="I2" t="str">
         <v>Female</v>
       </c>
-      <c r="G2" t="str">
+      <c r="J2" t="str">
         <v>Female</v>
+      </c>
+      <c r="K2" t="str">
+        <f>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/26605/index.do</f>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/26815/index.do</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> D.W. Beaubier</v>
+        <v>D.G.H. Bowman</v>
       </c>
       <c r="B3" t="str">
-        <v>CHARLES W. DOERING,</v>
+        <v>CHARLES B. LOEWEN,</v>
       </c>
       <c r="C3" t="str">
         <v>2003</v>
       </c>
       <c r="D3" t="str">
-        <v>Losing</v>
+        <v>Partially Winning</v>
       </c>
       <c r="E3" t="str">
-        <v>Employment Insurance Act</v>
-      </c>
-      <c r="F3" t="str">
+        <v>Income Tax</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="I3" t="str">
         <v>Male</v>
       </c>
-      <c r="G3" t="str">
+      <c r="J3" t="str">
         <v>Male</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>C.H. McArthur</v>
+        <v xml:space="preserve"> D.W. Beaubier</v>
       </c>
       <c r="B4" t="str">
-        <v>MICHAEL LAURIE,</v>
+        <v>DOUGLAS DIXON,</v>
       </c>
       <c r="C4" t="str">
         <v>2003</v>
       </c>
       <c r="D4" t="str">
-        <v>Losing</v>
+        <v>Partially Winning</v>
       </c>
       <c r="E4" t="str">
-        <v>Income tax</v>
-      </c>
-      <c r="F4" t="str">
+        <v>Income Tax</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Less than 1 year</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Partnership</v>
+      </c>
+      <c r="I4" t="str">
         <v>Male</v>
       </c>
-      <c r="G4" t="str">
+      <c r="J4" t="str">
         <v>Male</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> D.W. Beaubier</v>
+        <v xml:space="preserve"> Diane Campbell</v>
       </c>
       <c r="B5" t="str">
-        <v>DOUGLAS DIXON,</v>
+        <v>S.K. MANAGEMENT INC.,&amp;&amp;&amp;#CORPORATION</v>
       </c>
       <c r="C5" t="str">
         <v>2003</v>
       </c>
       <c r="D5" t="str">
-        <v>Partially Winning</v>
+        <v>Losing</v>
       </c>
       <c r="E5" t="str">
-        <v>Income Tax</v>
-      </c>
-      <c r="F5" t="str">
+        <v>Excise tax</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Less than 1 year</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Corporation</v>
+      </c>
+      <c r="I5" t="str">
         <v>Male</v>
       </c>
-      <c r="G5" t="str">
-        <v>Male</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>A.A. Sarchuk</v>
-      </c>
-      <c r="B6" t="str">
-        <v>HONORA ZAKRISON,</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2003</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Losing</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Income Tax</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="J5" t="str">
         <v>Female</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Male</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TCCWEBAPP/TCC.xlsx
+++ b/TCCWEBAPP/TCC.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,30 +419,36 @@
         <v>Type of Issue</v>
       </c>
       <c r="F1" t="str">
+        <v>Intial of Appellant</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Intital of Judge</v>
+      </c>
+      <c r="H1" t="str">
         <v>Inital Comparison</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>Duration of the Case</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>Type of Tax Payer</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>Gender of Appellant</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>Gender of Judge</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>URL</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> D.W. Rowe</v>
       </c>
       <c r="B2" t="str">
-        <v>MANON RODIER,</v>
+        <v>GORDON LAWRENCE SCOTT,</v>
       </c>
       <c r="C2" t="str">
         <v>2003</v>
@@ -451,100 +457,159 @@
         <v>Losing</v>
       </c>
       <c r="E2" t="str">
-        <v>Income Tax</v>
-      </c>
-      <c r="F2">
+        <v>Income tax</v>
+      </c>
+      <c r="F2" t="str">
+        <v>G.L.S.</v>
+      </c>
+      <c r="G2" t="str">
+        <v>D.W.R.</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
-        <v>Less than 1 year</v>
-      </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
+        <v>5</v>
+      </c>
+      <c r="J2" t="str">
         <v>Individual</v>
       </c>
-      <c r="I2" t="str">
-        <v>Female</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Female</v>
-      </c>
       <c r="K2" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/26815/index.do</v>
+        <v>Male</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Male</v>
+      </c>
+      <c r="M2" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/26824/index.do</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> D.W. Beaubier</v>
+        <v xml:space="preserve"> Pierre Archambault</v>
       </c>
       <c r="B3" t="str">
-        <v>CHARLES W. DOERING,</v>
+        <v>RONA INC.&amp;&amp;&amp;#CORPORATION</v>
       </c>
       <c r="C3" t="str">
         <v>2003</v>
       </c>
       <c r="D3" t="str">
-        <v>Losing</v>
+        <v>Partially Winning</v>
       </c>
       <c r="E3" t="str">
-        <v>Employment Insurance Act</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
+        <v>Income Tax Act</v>
+      </c>
+      <c r="F3" t="str">
+        <v>RI</v>
       </c>
       <c r="G3" t="str">
-        <v>2</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Individual</v>
+        <v>PA</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
       </c>
       <c r="I3" t="str">
+        <v>2000-2003 (3 years)</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Corporation</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Not specified</v>
+      </c>
+      <c r="L3" t="str">
         <v>Male</v>
       </c>
-      <c r="J3" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K3" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/27929/index.do</v>
+      <c r="M3" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/26816/index.do</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>D.G.H. Bowman</v>
+        <v xml:space="preserve"> R.D. Bell</v>
       </c>
       <c r="B4" t="str">
-        <v>CHARLES B. LOEWEN,</v>
+        <v>DALE COLBRAN,</v>
       </c>
       <c r="C4" t="str">
         <v>2003</v>
       </c>
       <c r="D4" t="str">
+        <v>Winning</v>
+      </c>
+      <c r="E4" t="str">
+        <v>GST</v>
+      </c>
+      <c r="F4" t="str">
+        <v>D.C.</v>
+      </c>
+      <c r="G4" t="str">
+        <v>R.D.B.</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="str">
+        <v>3</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="M4" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/26094/index.do</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B5" t="str">
+        <v>GUYLAINE DUCHAINE,</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2003</v>
+      </c>
+      <c r="D5" t="str">
         <v>Partially Winning</v>
       </c>
-      <c r="E4" t="str">
-        <v>Income Tax</v>
-      </c>
-      <c r="F4">
+      <c r="E5" t="str">
+        <v>Income Tax Act</v>
+      </c>
+      <c r="F5" t="str">
+        <v>GD</v>
+      </c>
+      <c r="G5" t="str">
+        <v>FA</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="G4" t="str">
-        <v>2</v>
-      </c>
-      <c r="H4" t="str">
+      <c r="I5" t="str">
+        <v>2003-1999=4 years</v>
+      </c>
+      <c r="J5" t="str">
         <v>Individual</v>
       </c>
-      <c r="I4" t="str">
+      <c r="K5" t="str">
+        <v>Female</v>
+      </c>
+      <c r="L5" t="str">
         <v>Male</v>
       </c>
-      <c r="J4" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K4" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/26605/index.do</v>
+      <c r="M5" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/26977/index.do</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TCCWEBAPP/TCC.xlsx
+++ b/TCCWEBAPP/TCC.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,34 +445,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Monica Biringer</v>
+        <v xml:space="preserve"> Bruce Russell</v>
       </c>
       <c r="B2" t="str">
-        <v>JOSE ANTONIO VIRITO REYES,</v>
+        <v>LIN L. KEEHN,</v>
       </c>
       <c r="C2" t="str">
         <v>2023</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F2" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G2" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="K2" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L2" t="str">
-        <v>MALE</v>
       </c>
       <c r="M2" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521038/index.do</v>
@@ -480,34 +459,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B3" t="str">
-        <v>ALL SPORTS MARKETING INC.,</v>
+        <v>POLARSAT INC.,</v>
       </c>
       <c r="C3" t="str">
         <v>2023</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F3" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G3" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="K3" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L3" t="str">
-        <v>MALE</v>
       </c>
       <c r="M3" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521044/index.do</v>
@@ -518,31 +476,10 @@
         <v xml:space="preserve"> David E. Spiro</v>
       </c>
       <c r="B4" t="str">
-        <v>BRUNO OLIVEIRA,</v>
+        <v>MICHAEL GREER,</v>
       </c>
       <c r="C4" t="str">
         <v>2023</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F4" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G4" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="K4" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L4" t="str">
-        <v>MALE</v>
       </c>
       <c r="M4" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521125/index.do</v>
@@ -550,34 +487,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v>Eugene P. Rossiter</v>
       </c>
       <c r="B5" t="str">
-        <v>CANADIAN SECURITY &amp;</v>
+        <v>NAVDEEP SINDHI,</v>
       </c>
       <c r="C5" t="str">
         <v>2023</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F5" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G5" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="K5" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L5" t="str">
-        <v>MALE</v>
       </c>
       <c r="M5" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521126/index.do</v>
@@ -588,31 +504,10 @@
         <v xml:space="preserve"> Gabrielle St-Hilaire</v>
       </c>
       <c r="B6" t="str">
-        <v>3792391 CANADA INC.,</v>
+        <v>MOHAMMAD YADGAR,</v>
       </c>
       <c r="C6" t="str">
         <v>2023</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F6" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G6" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="K6" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L6" t="str">
-        <v>MALE</v>
       </c>
       <c r="M6" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521127/index.do</v>
@@ -620,34 +515,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> Dominique Lafleur</v>
+        <v xml:space="preserve"> Ronald MacPhee</v>
       </c>
       <c r="B7" t="str">
-        <v>ANNA WAI MAN WAN,</v>
+        <v>MIRIAM WATTS,</v>
       </c>
       <c r="C7" t="str">
         <v>2023</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F7" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G7" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="K7" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L7" t="str">
-        <v>MALE</v>
       </c>
       <c r="M7" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521056/index.do</v>
@@ -655,34 +529,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve"> Ronald MacPhee</v>
+        <v>Justice Gaston Jorré</v>
       </c>
       <c r="B8" t="str">
-        <v>A-SUPREME NURSING &amp; HOME CARE SERVICES INC.,</v>
+        <v>2489869 ONTARIO INC.,</v>
       </c>
       <c r="C8" t="str">
         <v>2023</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F8" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G8" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L8" t="str">
-        <v>MALE</v>
       </c>
       <c r="M8" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521051/index.do</v>
@@ -690,34 +543,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> Monica Biringer</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B9" t="str">
-        <v>ALYKHAN HABIB HIRJEE,</v>
+        <v>JOHN MICHALUK,</v>
       </c>
       <c r="C9" t="str">
         <v>2023</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F9" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G9" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="K9" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L9" t="str">
-        <v>MALE</v>
       </c>
       <c r="M9" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521043/index.do</v>
@@ -725,34 +557,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
       </c>
       <c r="B10" t="str">
-        <v>CO-OPERATIVE HAIL INSURANCE COMPANY LIMITED,</v>
+        <v>BRANDON OSADCHUCK,</v>
       </c>
       <c r="C10" t="str">
         <v>2023</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F10" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G10" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="K10" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L10" t="str">
-        <v>MALE</v>
       </c>
       <c r="M10" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521047/index.do</v>
@@ -760,34 +571,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> Steven K. D’Arcy</v>
+        <v xml:space="preserve"> David E. Spiro</v>
       </c>
       <c r="B11" t="str">
-        <v>THE BELL TELEPHONE COMPANY OF CANADA</v>
+        <v>CANADIAN WESTERN TRUST COMPANY</v>
       </c>
       <c r="C11" t="str">
         <v>2023</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F11" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G11" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="K11" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L11" t="str">
-        <v>MALE</v>
       </c>
       <c r="M11" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521057/index.do</v>
@@ -795,34 +585,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Susan Wong</v>
       </c>
       <c r="B12" t="str">
-        <v>LUCY LITTLE,</v>
+        <v>BUHLER VERSATILE INC.,</v>
       </c>
       <c r="C12" t="str">
         <v>2023</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F12" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G12" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="K12" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L12" t="str">
-        <v>MALE</v>
       </c>
       <c r="M12" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521046/index.do</v>
@@ -830,34 +599,13 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve"> Joanna Hill</v>
+        <v xml:space="preserve"> Jean Marc Gagnon</v>
       </c>
       <c r="B13" t="str">
-        <v>JONATHON S. BREEN,</v>
+        <v>MARK ANDREWS,</v>
       </c>
       <c r="C13" t="str">
         <v>2023</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F13" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G13" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="K13" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L13" t="str">
-        <v>MALE</v>
       </c>
       <c r="M13" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521048/index.do</v>
@@ -865,34 +613,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+        <v xml:space="preserve"> Jean Marc Gagnon</v>
       </c>
       <c r="B14" t="str">
-        <v>IRVING EBERT,</v>
+        <v>MONIQUE GROULX,</v>
       </c>
       <c r="C14" t="str">
         <v>2023</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F14" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G14" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="K14" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L14" t="str">
-        <v>MALE</v>
       </c>
       <c r="M14" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521049/index.do</v>
@@ -900,34 +627,13 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve"> Jean Marc Gagnon</v>
+        <v xml:space="preserve"> Joanna Hill</v>
       </c>
       <c r="B15" t="str">
-        <v>G DEWAR LAING,</v>
+        <v>VIVIANA RESER,</v>
       </c>
       <c r="C15" t="str">
         <v>2023</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F15" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G15" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="K15" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L15" t="str">
-        <v>MALE</v>
       </c>
       <c r="M15" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521058/index.do</v>
@@ -935,34 +641,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v xml:space="preserve"> David E. Spiro</v>
+        <v xml:space="preserve"> Bruce Russell</v>
       </c>
       <c r="B16" t="str">
-        <v>EMMANUEL AZZOPARDI,</v>
+        <v>K&amp;D LOGGING LTD.,</v>
       </c>
       <c r="C16" t="str">
         <v>2023</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F16" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G16" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="K16" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L16" t="str">
-        <v>MALE</v>
       </c>
       <c r="M16" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521055/index.do</v>
@@ -970,34 +655,13 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v xml:space="preserve"> Dominique Lafleur</v>
       </c>
       <c r="B17" t="str">
-        <v>SEAN O'HAGAN,</v>
+        <v>1048547 ONTARIO INC.,</v>
       </c>
       <c r="C17" t="str">
         <v>2023</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F17" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G17" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="K17" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L17" t="str">
-        <v>MALE</v>
       </c>
       <c r="M17" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521059/index.do</v>
@@ -1005,34 +669,13 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B18" t="str">
-        <v>0808498 BC LTD.,</v>
+        <v>TONY DOUSSOT,</v>
       </c>
       <c r="C18" t="str">
         <v>2023</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F18" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G18" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="K18" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L18" t="str">
-        <v>MALE</v>
       </c>
       <c r="M18" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521064/index.do</v>
@@ -1040,34 +683,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+        <v>Justice G. Renaud</v>
       </c>
       <c r="B19" t="str">
-        <v>ADELINA SIMONETTA,</v>
+        <v>HEIDI MELENCHUK,</v>
       </c>
       <c r="C19" t="str">
         <v>2023</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F19" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G19" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="K19" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L19" t="str">
-        <v>MALE</v>
       </c>
       <c r="M19" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521072/index.do</v>
@@ -1075,34 +697,13 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve"> Jean Marc Gagnon</v>
+        <v xml:space="preserve"> Bruce Russell</v>
       </c>
       <c r="B20" t="str">
-        <v>SOUAD HAMMOUD,</v>
+        <v>MARLENE ENNS,</v>
       </c>
       <c r="C20" t="str">
         <v>2023</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F20" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G20" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="K20" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L20" t="str">
-        <v>MALE</v>
       </c>
       <c r="M20" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521065/index.do</v>
@@ -1110,42 +711,693 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Gaston Jorré, Deputy Judge</v>
+        <v xml:space="preserve"> Henry A. Visser</v>
       </c>
       <c r="B21" t="str">
-        <v>NEWFOUNDLAND BROADCASTING COMPANY LIMITED,</v>
+        <v>DAVID GOLDHAR,</v>
       </c>
       <c r="C21" t="str">
         <v>2023</v>
-      </c>
-      <c r="D21" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Not known</v>
-      </c>
-      <c r="F21" t="str">
-        <v>C.W.A</v>
-      </c>
-      <c r="G21" t="str">
-        <v>D.W.B</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="K21" t="str">
-        <v>MALE</v>
-      </c>
-      <c r="L21" t="str">
-        <v>MALE</v>
       </c>
       <c r="M21" t="str">
         <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521061/index.do</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve"> Monica Biringer</v>
+      </c>
+      <c r="B22" t="str">
+        <v>JOSE ANTONIO VIRITO REYES,</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M22" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521120/index.do</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B23" t="str">
+        <v>ALL SPORTS MARKETING INC.,</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M23" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521063/index.do</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v xml:space="preserve"> David E. Spiro</v>
+      </c>
+      <c r="B24" t="str">
+        <v>BRUNO OLIVEIRA,</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M24" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521067/index.do</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B25" t="str">
+        <v>CANADIAN SECURITY &amp;</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M25" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521066/index.do</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v xml:space="preserve"> Gabrielle St-Hilaire</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3792391 CANADA INC.,</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M26" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521069/index.do</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v xml:space="preserve"> Dominique Lafleur</v>
+      </c>
+      <c r="B27" t="str">
+        <v>ANNA WAI MAN WAN,</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M27" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521071/index.do</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v xml:space="preserve"> Ronald MacPhee</v>
+      </c>
+      <c r="B28" t="str">
+        <v>A-SUPREME NURSING &amp; HOME CARE SERVICES INC.,</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M28" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521070/index.do</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v xml:space="preserve"> Monica Biringer</v>
+      </c>
+      <c r="B29" t="str">
+        <v>ALYKHAN HABIB HIRJEE,</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M29" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521078/index.do</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v xml:space="preserve"> Bruce Russell</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CO-OPERATIVE HAIL INSURANCE COMPANY LIMITED,</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M30" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521074/index.do</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v xml:space="preserve"> Steven K. D’Arcy</v>
+      </c>
+      <c r="B31" t="str">
+        <v>THE BELL TELEPHONE COMPANY OF CANADA</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M31" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521075/index.do</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B32" t="str">
+        <v>LUCY LITTLE,</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M32" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521076/index.do</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v xml:space="preserve"> Joanna Hill</v>
+      </c>
+      <c r="B33" t="str">
+        <v>JONATHON S. BREEN,</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M33" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521079/index.do</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+      </c>
+      <c r="B34" t="str">
+        <v>IRVING EBERT,</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M34" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521082/index.do</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve"> Jean Marc Gagnon</v>
+      </c>
+      <c r="B35" t="str">
+        <v>G DEWAR LAING,</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M35" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521081/index.do</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v xml:space="preserve"> David E. Spiro</v>
+      </c>
+      <c r="B36" t="str">
+        <v>EMMANUEL AZZOPARDI,</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M36" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521092/index.do</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v xml:space="preserve"> Bruce Russell</v>
+      </c>
+      <c r="B37" t="str">
+        <v>SEAN O'HAGAN,</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M37" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521083/index.do</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+      </c>
+      <c r="B38" t="str">
+        <v>0808498 BC LTD.,</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M38" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521087/index.do</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+      </c>
+      <c r="B39" t="str">
+        <v>ADELINA SIMONETTA,</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M39" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521090/index.do</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v xml:space="preserve"> Jean Marc Gagnon</v>
+      </c>
+      <c r="B40" t="str">
+        <v>SOUAD HAMMOUD,</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M40" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521089/index.do</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Gaston Jorré, Deputy Judge</v>
+      </c>
+      <c r="B41" t="str">
+        <v>NEWFOUNDLAND BROADCASTING COMPANY LIMITED,</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M41" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521086/index.do</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v xml:space="preserve"> Bruce Russell</v>
+      </c>
+      <c r="B42" t="str">
+        <v>2405124 ONTARIO LTD.,</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M42" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521085/index.do</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v xml:space="preserve"> David E. Graham</v>
+      </c>
+      <c r="B43" t="str">
+        <v>WINDSOR ELMS VILLAGE FOR CONTINUING CARE SOCIETY,</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M43" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521084/index.do</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v xml:space="preserve"> Gabrielle St-Hilaire</v>
+      </c>
+      <c r="B44" t="str">
+        <v>MF ELECTRIC INCORPORATED,</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M44" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521088/index.do</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v xml:space="preserve"> Sylvain Ouimet</v>
+      </c>
+      <c r="B45" t="str">
+        <v>KEVIN LEE HACHULLA,</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M45" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521100/index.do</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v xml:space="preserve"> Joanna Hill</v>
+      </c>
+      <c r="B46" t="str">
+        <v>ALLAN WERSTEIN,</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M46" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521093/index.do</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v xml:space="preserve"> Susan Wong</v>
+      </c>
+      <c r="B47" t="str">
+        <v>PROSPERA CREDIT UNION,</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M47" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521091/index.do</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>David E. Graham</v>
+      </c>
+      <c r="B48" t="str">
+        <v>THE ESTATE OF VENENCE COTE,</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M48" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521094/index.do</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v xml:space="preserve"> Ronald MacPhee</v>
+      </c>
+      <c r="B49" t="str">
+        <v>GARG INVESTMENTS INC.,</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M49" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521097/index.do</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v xml:space="preserve"> Joanna Hill</v>
+      </c>
+      <c r="B50" t="str">
+        <v>DARREN JAMIESON,</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M50" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521098/index.do</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>David E. Graham</v>
+      </c>
+      <c r="B51" t="str">
+        <v>BRANDON OSADCHUK,</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M51" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521096/index.do</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v xml:space="preserve"> Dominique Lafleur</v>
+      </c>
+      <c r="B52" t="str">
+        <v>HILLCORE FINANCIAL CORPORATION,</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M52" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521099/index.do</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Mr. Justice Randall S. Bocock</v>
+      </c>
+      <c r="B53" t="str">
+        <v>THE UNIVERSITY OF NEW BRUNSWICK,</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M53" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521101/index.do</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+      </c>
+      <c r="B54" t="str">
+        <v>S. ROBERT CHAD,</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M54" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521102/index.do</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v xml:space="preserve"> Bruce Russell</v>
+      </c>
+      <c r="B55" t="str">
+        <v>YIN LI,</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M55" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521106/index.do</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v xml:space="preserve"> Sylvain Ouimet</v>
+      </c>
+      <c r="B56" t="str">
+        <v>JOHN DOE[*],</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M56" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521111/index.do</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v xml:space="preserve"> Susan Wong</v>
+      </c>
+      <c r="B57" t="str">
+        <v>JANIS ROBB,</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M57" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521104/index.do</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Justice Gaston Jorré</v>
+      </c>
+      <c r="B58" t="str">
+        <v>OM GUPTA,</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M58" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521108/index.do</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v xml:space="preserve"> Monica Biringer</v>
+      </c>
+      <c r="B59" t="str">
+        <v>RODERIC PARKER,</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M59" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521109/index.do</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v xml:space="preserve"> David E. Spiro</v>
+      </c>
+      <c r="B60" t="str">
+        <v>MARIA BALATONI,</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M60" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521124/index.do</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v xml:space="preserve"> David E. Spiro</v>
+      </c>
+      <c r="B61" t="str">
+        <v>JEFFREY P ADAMS,</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M61" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521113/index.do</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v xml:space="preserve"> Bruce Russell</v>
+      </c>
+      <c r="B62" t="str">
+        <v>GREGORY A. GESSNER,</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M62" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521112/index.do</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Mr. Justice Randall S. Bocock</v>
+      </c>
+      <c r="B63" t="str">
+        <v>ALEXANDRE PAPOUCHINE,</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M63" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521116/index.do</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v xml:space="preserve"> Gabrielle St-Hilaire</v>
+      </c>
+      <c r="B64" t="str">
+        <v>SOPHIE PAYETTE,</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M64" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521040/index.do</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v xml:space="preserve"> Sylvain Ouimet</v>
+      </c>
+      <c r="B65" t="str">
+        <v>JOHN DOE[*],</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M65" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521114/index.do</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B66" t="str">
+        <v>AMEX BANK OF CANADA,</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M66" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521117/index.do</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v xml:space="preserve"> David E. Spiro</v>
+      </c>
+      <c r="B67" t="str">
+        <v>AFB JANITORIAL SERVICES INC.,</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M67" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521119/index.do</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Steven K. D’Arcy</v>
+      </c>
+      <c r="B68" t="str">
+        <v>MARINE ATLANTIC INC.,</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M68" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521122/index.do</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Mr. Justice Randall S. Bocock</v>
+      </c>
+      <c r="B69" t="str">
+        <v>CLARE OSBORNE,</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M69" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521123/index.do</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M69"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TCCWEBAPP/TCC.xlsx
+++ b/TCCWEBAPP/TCC.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,324 +445,324 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v xml:space="preserve"> Valerie Miller</v>
       </c>
       <c r="B2" t="str">
-        <v>LIN L. KEEHN,</v>
+        <v>RANDY J. OLLENBERGER,</v>
       </c>
       <c r="C2" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M2" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521038/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30857/index.do</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B3" t="str">
-        <v>POLARSAT INC.,</v>
+        <v>MARIA LUCARELLI,</v>
       </c>
       <c r="C3" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M3" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521044/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30931/index.do</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> David E. Spiro</v>
+        <v xml:space="preserve"> Robert J. Hogan</v>
       </c>
       <c r="B4" t="str">
-        <v>MICHAEL GREER,</v>
+        <v>JAGMOHAN SINGH GILL,</v>
       </c>
       <c r="C4" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M4" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521125/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30946/index.do</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Eugene P. Rossiter</v>
+        <v xml:space="preserve"> Lucie Lamarre</v>
       </c>
       <c r="B5" t="str">
-        <v>NAVDEEP SINDHI,</v>
+        <v>ANNITA EMOND,</v>
       </c>
       <c r="C5" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M5" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521126/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30933/index.do</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Gabrielle St-Hilaire</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B6" t="str">
-        <v>MOHAMMAD YADGAR,</v>
+        <v>GROUPE HONCO INC.,</v>
       </c>
       <c r="C6" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M6" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521127/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30940/index.do</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> Ronald MacPhee</v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B7" t="str">
-        <v>MIRIAM WATTS,</v>
+        <v>JI-HWAN PARK,</v>
       </c>
       <c r="C7" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M7" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521056/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30935/index.do</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Justice Gaston Jorré</v>
+        <v xml:space="preserve"> Robert J. Hogan</v>
       </c>
       <c r="B8" t="str">
-        <v>2489869 ONTARIO INC.,</v>
+        <v>DEBORAH MAASS-HOWARD,</v>
       </c>
       <c r="C8" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M8" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521051/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31004/index.do</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B9" t="str">
-        <v>JOHN MICHALUK,</v>
+        <v>763993 ALBERTA LTD.,</v>
       </c>
       <c r="C9" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M9" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521043/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30936/index.do</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B10" t="str">
-        <v>BRANDON OSADCHUCK,</v>
+        <v>SYLVIE GIGUÈRE,</v>
       </c>
       <c r="C10" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M10" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521047/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30945/index.do</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> David E. Spiro</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B11" t="str">
-        <v>CANADIAN WESTERN TRUST COMPANY</v>
+        <v>JOHN MCEWEN,</v>
       </c>
       <c r="C11" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M11" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521057/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30690/index.do</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> Susan Wong</v>
+        <v xml:space="preserve"> F.J. Pizzitelli</v>
       </c>
       <c r="B12" t="str">
-        <v>BUHLER VERSATILE INC.,</v>
+        <v>MARK TWOMEY,</v>
       </c>
       <c r="C12" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M12" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521046/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30938/index.do</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve"> Jean Marc Gagnon</v>
+        <v xml:space="preserve"> B. Paris</v>
       </c>
       <c r="B13" t="str">
-        <v>MARK ANDREWS,</v>
+        <v>HARVEY CHADWICK,</v>
       </c>
       <c r="C13" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M13" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521048/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30939/index.do</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve"> Jean Marc Gagnon</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B14" t="str">
-        <v>MONIQUE GROULX,</v>
+        <v>LAIRD STEVENS,</v>
       </c>
       <c r="C14" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M14" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521049/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30961/index.do</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve"> Joanna Hill</v>
+        <v>Diane Campbell</v>
       </c>
       <c r="B15" t="str">
-        <v>VIVIANA RESER,</v>
+        <v>ROBERT ELWOOD,</v>
       </c>
       <c r="C15" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M15" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521058/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30950/index.do</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v>Valerie Miller</v>
       </c>
       <c r="B16" t="str">
-        <v>K&amp;D LOGGING LTD.,</v>
+        <v>GEORGE J. BRAKE,</v>
       </c>
       <c r="C16" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M16" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521055/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30947/index.do</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve"> Dominique Lafleur</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B17" t="str">
-        <v>1048547 ONTARIO INC.,</v>
+        <v>TERESA BRUNO,</v>
       </c>
       <c r="C17" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M17" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521059/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30943/index.do</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v>Valerie Miller</v>
       </c>
       <c r="B18" t="str">
-        <v>TONY DOUSSOT,</v>
+        <v>OSWALD F. ROBERTS,</v>
       </c>
       <c r="C18" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M18" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521064/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30948/index.do</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Justice G. Renaud</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B19" t="str">
-        <v>HEIDI MELENCHUK,</v>
+        <v>MOHAMMED RAHMAN,</v>
       </c>
       <c r="C19" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M19" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521072/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30949/index.do</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B20" t="str">
-        <v>MARLENE ENNS,</v>
+        <v>MARGARET SWAIN,</v>
       </c>
       <c r="C20" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M20" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521065/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30979/index.do</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve"> Henry A. Visser</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B21" t="str">
-        <v>DAVID GOLDHAR,</v>
+        <v>9098-9005 QUEBEC INC.,</v>
       </c>
       <c r="C21" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M21" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521061/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30971/index.do</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve"> Monica Biringer</v>
+        <v xml:space="preserve"> Valerie Miller</v>
       </c>
       <c r="B22" t="str">
-        <v>JOSE ANTONIO VIRITO REYES,</v>
+        <v>KATHRYN KOSSOW,</v>
       </c>
       <c r="C22" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M22" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521120/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30953/index.do</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v>F.J. Pizzitelli</v>
       </c>
       <c r="B23" t="str">
-        <v>ALL SPORTS MARKETING INC.,</v>
+        <v>REYNOLD DICKIE,</v>
       </c>
       <c r="C23" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M23" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521063/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30959/index.do</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve"> David E. Spiro</v>
+        <v>Diane Campbell</v>
       </c>
       <c r="B24" t="str">
-        <v>BRUNO OLIVEIRA,</v>
+        <v>LAWRENCE WATTS, ELIZABETH BROCCOLI, VINTON MURRAY and ALFRED J.R. ADJETY,</v>
       </c>
       <c r="C24" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M24" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521067/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30955/index.do</v>
       </c>
     </row>
     <row r="25">
@@ -770,634 +770,1964 @@
         <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B25" t="str">
-        <v>CANADIAN SECURITY &amp;</v>
+        <v>SHIRLEY PATRICIA MCKENZIE,</v>
       </c>
       <c r="C25" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M25" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521066/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30983/index.do</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v xml:space="preserve"> Gabrielle St-Hilaire</v>
+        <v xml:space="preserve"> Valerie Miller</v>
       </c>
       <c r="B26" t="str">
-        <v>3792391 CANADA INC.,</v>
+        <v>WILLIAM A. LAWRENCE,</v>
       </c>
       <c r="C26" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M26" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521069/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30954/index.do</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve"> Dominique Lafleur</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B27" t="str">
-        <v>ANNA WAI MAN WAN,</v>
+        <v>YVONNE TUCK,</v>
       </c>
       <c r="C27" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M27" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521071/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30956/index.do</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v xml:space="preserve"> Ronald MacPhee</v>
+        <v xml:space="preserve"> Steven K. D'Arcy</v>
       </c>
       <c r="B28" t="str">
-        <v>A-SUPREME NURSING &amp; HOME CARE SERVICES INC.,</v>
+        <v>LANCE ANDERSON,</v>
       </c>
       <c r="C28" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M28" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521070/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30960/index.do</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v xml:space="preserve"> Monica Biringer</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B29" t="str">
-        <v>ALYKHAN HABIB HIRJEE,</v>
+        <v>DARLENE ANTHONY,</v>
       </c>
       <c r="C29" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M29" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521078/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30957/index.do</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B30" t="str">
-        <v>CO-OPERATIVE HAIL INSURANCE COMPANY LIMITED,</v>
+        <v>BRADMAN LEE,</v>
       </c>
       <c r="C30" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M30" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521074/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30958/index.do</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v xml:space="preserve"> Steven K. D’Arcy</v>
+        <v>Chief Judge Gerald J. Rip</v>
       </c>
       <c r="B31" t="str">
-        <v>THE BELL TELEPHONE COMPANY OF CANADA</v>
+        <v>DANIEL MARCOTTE,</v>
       </c>
       <c r="C31" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M31" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521075/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30963/index.do</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v>Mr. Justice Randall Bocock</v>
       </c>
       <c r="B32" t="str">
-        <v>LUCY LITTLE,</v>
+        <v>RONALD SYDNEY PHILLIPS,</v>
       </c>
       <c r="C32" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M32" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521076/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30964/index.do</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve"> Joanna Hill</v>
+        <v>Mr. Justice Randall Bocock</v>
       </c>
       <c r="B33" t="str">
-        <v>JONATHON S. BREEN,</v>
+        <v>VIKRAM NANDAKUMAR,</v>
       </c>
       <c r="C33" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M33" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521079/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30965/index.do</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B34" t="str">
-        <v>IRVING EBERT,</v>
+        <v>PIERRE LABRECQUE,</v>
       </c>
       <c r="C34" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M34" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521082/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30986/index.do</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve"> Jean Marc Gagnon</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B35" t="str">
-        <v>G DEWAR LAING,</v>
+        <v>CLÉMENT GIROUX,</v>
       </c>
       <c r="C35" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M35" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521081/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30966/index.do</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve"> David E. Spiro</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B36" t="str">
-        <v>EMMANUEL AZZOPARDI,</v>
+        <v>MARTIN PERRON,</v>
       </c>
       <c r="C36" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M36" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521092/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30967/index.do</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B37" t="str">
-        <v>SEAN O'HAGAN,</v>
+        <v>RÉAL BOUDREAU,</v>
       </c>
       <c r="C37" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M37" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521083/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30969/index.do</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B38" t="str">
-        <v>0808498 BC LTD.,</v>
+        <v>SÉBASTIEN GIRARD (PRO GESTION 3000),</v>
       </c>
       <c r="C38" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M38" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521087/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30970/index.do</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+        <v xml:space="preserve"> B. Paris</v>
       </c>
       <c r="B39" t="str">
-        <v>ADELINA SIMONETTA,</v>
+        <v>CARLO MASSICOLLI,</v>
       </c>
       <c r="C39" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M39" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521090/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30973/index.do</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v xml:space="preserve"> Jean Marc Gagnon</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B40" t="str">
-        <v>SOUAD HAMMOUD,</v>
+        <v>BALBIR KAUR BASI,</v>
       </c>
       <c r="C40" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M40" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521089/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30976/index.do</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Gaston Jorré, Deputy Judge</v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B41" t="str">
-        <v>NEWFOUNDLAND BROADCASTING COMPANY LIMITED,</v>
+        <v>SURREY CITY CENTRE MALL LTD.,</v>
       </c>
       <c r="C41" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M41" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521086/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30975/index.do</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B42" t="str">
-        <v>2405124 ONTARIO LTD.,</v>
+        <v>DOUGLAS JOHN SUTCLIFFE,</v>
       </c>
       <c r="C42" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M42" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521085/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30974/index.do</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v xml:space="preserve"> David E. Graham</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B43" t="str">
-        <v>WINDSOR ELMS VILLAGE FOR CONTINUING CARE SOCIETY,</v>
+        <v>SALVATORE PERAGINE,</v>
       </c>
       <c r="C43" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M43" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521084/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30977/index.do</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v xml:space="preserve"> Gabrielle St-Hilaire</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B44" t="str">
-        <v>MF ELECTRIC INCORPORATED,</v>
+        <v>AMY LE,</v>
       </c>
       <c r="C44" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M44" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521088/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30990/index.do</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v xml:space="preserve"> Sylvain Ouimet</v>
+        <v>Gaston Jorré</v>
       </c>
       <c r="B45" t="str">
-        <v>KEVIN LEE HACHULLA,</v>
+        <v>SARUP KUNDI,</v>
       </c>
       <c r="C45" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M45" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521100/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30678/index.do</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v xml:space="preserve"> Joanna Hill</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B46" t="str">
-        <v>ALLAN WERSTEIN,</v>
+        <v>VICKI ANNE WELCH,</v>
       </c>
       <c r="C46" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M46" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521093/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30978/index.do</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve"> Susan Wong</v>
+        <v xml:space="preserve"> Johanne D'Auray</v>
       </c>
       <c r="B47" t="str">
-        <v>PROSPERA CREDIT UNION,</v>
+        <v>MOTECH MOLDING INC. / MOTECH</v>
       </c>
       <c r="C47" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M47" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521091/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30982/index.do</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>David E. Graham</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B48" t="str">
-        <v>THE ESTATE OF VENENCE COTE,</v>
+        <v>GEOFFREY LAST,</v>
       </c>
       <c r="C48" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M48" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521094/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30980/index.do</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve"> Ronald MacPhee</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B49" t="str">
-        <v>GARG INVESTMENTS INC.,</v>
+        <v>SUZANNE ASHTON</v>
       </c>
       <c r="C49" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M49" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521097/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30981/index.do</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v xml:space="preserve"> Joanna Hill</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B50" t="str">
-        <v>DARREN JAMIESON,</v>
+        <v>STANISLAW PAWLAK, JADWIGA PAWLAK,</v>
       </c>
       <c r="C50" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M50" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521098/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30987/index.do</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>David E. Graham</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B51" t="str">
-        <v>BRANDON OSADCHUK,</v>
+        <v>SPRUCE CREDIT UNION,</v>
       </c>
       <c r="C51" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M51" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521096/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30984/index.do</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v xml:space="preserve"> Dominique Lafleur</v>
+        <v>Mr. Justice Randall Bocock</v>
       </c>
       <c r="B52" t="str">
-        <v>HILLCORE FINANCIAL CORPORATION,</v>
+        <v>THE BRENT KERN FAMILY TRUST,</v>
       </c>
       <c r="C52" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M52" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521099/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30993/index.do</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Mr. Justice Randall S. Bocock</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B53" t="str">
-        <v>THE UNIVERSITY OF NEW BRUNSWICK,</v>
+        <v>COLIN FOREMAN,</v>
       </c>
       <c r="C53" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M53" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521101/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30689/index.do</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v xml:space="preserve"> Don R. Sommerfeldt</v>
+        <v>B. Paris</v>
       </c>
       <c r="B54" t="str">
-        <v>S. ROBERT CHAD,</v>
+        <v>OBARO OKOROZE,</v>
       </c>
       <c r="C54" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M54" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521102/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30991/index.do</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v>Alain Tardif</v>
       </c>
       <c r="B55" t="str">
-        <v>YIN LI,</v>
+        <v>BOISSONNEAULT GROUPE IMMOBILIER INC.,</v>
       </c>
       <c r="C55" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M55" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521106/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30988/index.do</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve"> Sylvain Ouimet</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B56" t="str">
-        <v>JOHN DOE[*],</v>
+        <v>MICHELLE CAMPBELL,</v>
       </c>
       <c r="C56" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M56" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521111/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30995/index.do</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v xml:space="preserve"> Susan Wong</v>
+        <v xml:space="preserve"> Pierre Archambault</v>
       </c>
       <c r="B57" t="str">
-        <v>JANIS ROBB,</v>
+        <v>9101-2310 QUÉBEC INC.,</v>
       </c>
       <c r="C57" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M57" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521104/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30997/index.do</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Justice Gaston Jorré</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B58" t="str">
-        <v>OM GUPTA,</v>
+        <v>LABORATOIRE DU-VAR INC.,</v>
       </c>
       <c r="C58" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M58" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521108/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30994/index.do</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v xml:space="preserve"> Monica Biringer</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B59" t="str">
-        <v>RODERIC PARKER,</v>
+        <v>DANIELLE LEMIRE,</v>
       </c>
       <c r="C59" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M59" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521109/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30992/index.do</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v xml:space="preserve"> David E. Spiro</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B60" t="str">
-        <v>MARIA BALATONI,</v>
+        <v>SUNNY LYTLE,</v>
       </c>
       <c r="C60" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M60" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521124/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31036/index.do</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v xml:space="preserve"> David E. Spiro</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B61" t="str">
-        <v>JEFFREY P ADAMS,</v>
+        <v>NORTH DELTA REAL HOT YOGA LTD.,</v>
       </c>
       <c r="C61" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M61" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521113/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31071/index.do</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v xml:space="preserve"> Bruce Russell</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B62" t="str">
-        <v>GREGORY A. GESSNER,</v>
+        <v>MARTIAL MORISSETTE,</v>
       </c>
       <c r="C62" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M62" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521112/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30705/index.do</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mr. Justice Randall S. Bocock</v>
+        <v xml:space="preserve"> J.M. Woods</v>
       </c>
       <c r="B63" t="str">
-        <v>ALEXANDRE PAPOUCHINE,</v>
+        <v>ANA C. DEAN, o/a ANA’S CARE &amp; HOME SUPPORT,</v>
       </c>
       <c r="C63" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M63" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521116/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30998/index.do</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v xml:space="preserve"> Gabrielle St-Hilaire</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B64" t="str">
-        <v>SOPHIE PAYETTE,</v>
+        <v>HASSAN YAZDANI,</v>
       </c>
       <c r="C64" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M64" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521040/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30996/index.do</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v xml:space="preserve"> Sylvain Ouimet</v>
+        <v xml:space="preserve"> Campbell J. Miller</v>
       </c>
       <c r="B65" t="str">
-        <v>JOHN DOE[*],</v>
+        <v>KEVIN D'AMORE,</v>
       </c>
       <c r="C65" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M65" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521114/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31000/index.do</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Lucie Lamarre</v>
       </c>
       <c r="B66" t="str">
-        <v>AMEX BANK OF CANADA,</v>
+        <v>FRANCE MARTEL,</v>
       </c>
       <c r="C66" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M66" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521117/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31001/index.do</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v xml:space="preserve"> David E. Spiro</v>
+        <v xml:space="preserve"> T.E. Margeson</v>
       </c>
       <c r="B67" t="str">
-        <v>AFB JANITORIAL SERVICES INC.,</v>
+        <v>TRANSALTA CORPORATION,</v>
       </c>
       <c r="C67" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M67" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521119/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30999/index.do</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Steven K. D’Arcy</v>
+        <v xml:space="preserve"> Robert J. Hogan</v>
       </c>
       <c r="B68" t="str">
-        <v>MARINE ATLANTIC INC.,</v>
+        <v>1726437 ONTARIO INC. o/a</v>
       </c>
       <c r="C68" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M68" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521122/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31003/index.do</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mr. Justice Randall S. Bocock</v>
+        <v xml:space="preserve"> Robert J. Hogan</v>
       </c>
       <c r="B69" t="str">
-        <v>CLARE OSBORNE,</v>
+        <v>SWS COMMUNICATION INC.,</v>
       </c>
       <c r="C69" t="str">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M69" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521123/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31002/index.do</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B70" t="str">
+        <v>JULIE BURKE,</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M70" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31005/index.do</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v xml:space="preserve"> Valerie Miller</v>
+      </c>
+      <c r="B71" t="str">
+        <v>JUDITH MACLEOD,</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M71" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31006/index.do</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+      </c>
+      <c r="B72" t="str">
+        <v>JUDY LEQUIER,</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M72" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31007/index.do</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Jean-Louis Batiot</v>
+      </c>
+      <c r="B73" t="str">
+        <v>CHARLES TOUPIN,</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M73" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31012/index.do</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Mr. Justice Randall Bocock</v>
+      </c>
+      <c r="B74" t="str">
+        <v>RENATE BRAUER,</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M74" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31008/index.do</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Mr. Justice Randall Bocock</v>
+      </c>
+      <c r="B75" t="str">
+        <v>YOUNG TILE INC.,</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M75" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31009/index.do</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B76" t="str">
+        <v>ALINE LÉVESQUE,</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M76" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31011/index.do</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B77" t="str">
+        <v>SUCCESSION OF SUZIE BROUSSEAU,</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M77" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31010/index.do</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v xml:space="preserve"> B. Paris</v>
+      </c>
+      <c r="B78" t="str">
+        <v>MAWUEWO K.J. AFOVIA,</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M78" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31013/index.do</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v xml:space="preserve"> Diane Campbell</v>
+      </c>
+      <c r="B79" t="str">
+        <v>SURINDER HAYER,</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M79" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31015/index.do</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B80" t="str">
+        <v>MAC'S CONVENIENCE STORES INC.,</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M80" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31016/index.do</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B81" t="str">
+        <v>BILL JORDAN,</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M81" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31014/index.do</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v xml:space="preserve"> Jean-Louis Batiot</v>
+      </c>
+      <c r="B82" t="str">
+        <v>LES CONSTRUCTIONS MARABELLA INC.,</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M82" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31020/index.do</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B83" t="str">
+        <v>WALFRED ERICKSON,</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M83" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31017/index.do</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B84" t="str">
+        <v>1259066 ONTARIO LIMITED,</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M84" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31028/index.do</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B85" t="str">
+        <v>INTEGRANUITY MARKETING LTD.,</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M85" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30653/index.do</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v xml:space="preserve"> Gaston Jorré</v>
+      </c>
+      <c r="B86" t="str">
+        <v>HÉLÈNE L. PERRON,</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M86" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30691/index.do</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B87" t="str">
+        <v>9134-2485 QUEBEC INC.,</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M87" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31019/index.do</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B88" t="str">
+        <v>ALEXANDER TRAN,</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M88" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31021/index.do</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>B. Paris</v>
+      </c>
+      <c r="B89" t="str">
+        <v>MICHAEL PALANGIO,</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M89" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31022/index.do</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Mr. Justice Randall Bocock</v>
+      </c>
+      <c r="B90" t="str">
+        <v>ALLEN BERG,</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M90" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31023/index.do</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Gaston Jorré</v>
+      </c>
+      <c r="B91" t="str">
+        <v>TERASEN INTERNATIONAL INC.</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M91" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31054/index.do</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v xml:space="preserve"> Valerie Miller</v>
+      </c>
+      <c r="B92" t="str">
+        <v>THE ESTATE OF THE LATE ANNA NTAKOS,</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M92" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31024/index.do</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B93" t="str">
+        <v>MICHAEL E. DUKE,</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M93" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30694/index.do</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Chief Justice Gerald J. Rip</v>
+      </c>
+      <c r="B94" t="str">
+        <v>ÉCOLE DE LANGUES ABCE INC.,</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M94" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31025/index.do</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B95" t="str">
+        <v>GEORGIOS (GEORGE) PRIFTIS,</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M95" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31035/index.do</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B96" t="str">
+        <v>MARIE-CLAUDE POULIN,</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M96" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31032/index.do</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v xml:space="preserve"> Johanne D’Auray</v>
+      </c>
+      <c r="B97" t="str">
+        <v>CONSTRUCTION BIAGIO MAIORINO INC.,</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M97" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31026/index.do</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B98" t="str">
+        <v>OM P. MITTAL,</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M98" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31027/index.do</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B99" t="str">
+        <v>DARYL CHRISTENSEN,</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M99" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30695/index.do</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B100" t="str">
+        <v>NRT TECHNOLOGY CORP.,</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M100" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31030/index.do</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B101" t="str">
+        <v>DALI BENTOLILA,</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M101" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31033/index.do</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B102" t="str">
+        <v>830480 ALBERTA INC.,</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M102" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31031/index.do</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Rommel G. Masse</v>
+      </c>
+      <c r="B103" t="str">
+        <v>CHANTAL CONSTANTIN,</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M103" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31078/index.do</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B104" t="str">
+        <v>LAURIANNE GAUCHER,</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M104" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30696/index.do</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v xml:space="preserve"> Valerie Miller</v>
+      </c>
+      <c r="B105" t="str">
+        <v>FIONA J. EDWARDS,</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M105" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31034/index.do</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v xml:space="preserve"> B. Paris</v>
+      </c>
+      <c r="B106" t="str">
+        <v>NORAN WEST DEVELOPMENTS LTD.,</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M106" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31038/index.do</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B107" t="str">
+        <v>DARLENE STEWART,</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M107" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31037/index.do</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B108" t="str">
+        <v>ALGONQUIN LANDSCAPING LTD.,</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M108" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31039/index.do</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v xml:space="preserve"> Gaston Jorré</v>
+      </c>
+      <c r="B109" t="str">
+        <v>SYNER/PLUS INC.,</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M109" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30697/index.do</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B110" t="str">
+        <v>KARL KRATOCHWIL,</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M110" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30698/index.do</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B111" t="str">
+        <v>IAN BROWN,</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M111" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31043/index.do</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B112" t="str">
+        <v>BRENDA WALKOWIAK,</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M112" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31044/index.do</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B113" t="str">
+        <v>JOHN E. KUCH,</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M113" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31045/index.do</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v xml:space="preserve"> Steven K. D’Arcy</v>
+      </c>
+      <c r="B114" t="str">
+        <v>ELENA SHULKOV,</v>
+      </c>
+      <c r="C114" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M114" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31046/index.do</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B115" t="str">
+        <v>MARGARET SWAIN,</v>
+      </c>
+      <c r="C115" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M115" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30701/index.do</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v xml:space="preserve"> Gaston Jorré</v>
+      </c>
+      <c r="B116" t="str">
+        <v>2868-3977 QUÉBEC INC.,</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M116" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30700/index.do</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B117" t="str">
+        <v>JO-ANN NADALIN,</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M117" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30703/index.do</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B118" t="str">
+        <v>TEHSEEN FATIMA,</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M118" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30699/index.do</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B119" t="str">
+        <v>GIFFORD H. TOOLE,</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M119" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30702/index.do</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B120" t="str">
+        <v>JAMES O. GROSSETT,</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M120" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30710/index.do</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B121" t="str">
+        <v>VIDA BRUCE,</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M121" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30704/index.do</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v xml:space="preserve"> Johanne D’Auray</v>
+      </c>
+      <c r="B122" t="str">
+        <v>JACQUES POISSON,</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M122" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30713/index.do</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B123" t="str">
+        <v>DAVID LAM,</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M123" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30708/index.do</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B124" t="str">
+        <v>MORGUARD CORPORATION,</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M124" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30725/index.do</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B125" t="str">
+        <v>AZIZULLAH HAFIZY,</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M125" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30709/index.do</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+      </c>
+      <c r="B126" t="str">
+        <v>VELCRO CANADA INC.,</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M126" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30726/index.do</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v xml:space="preserve"> Valerie Miller</v>
+      </c>
+      <c r="B127" t="str">
+        <v>DOLORES ROMANUK,</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M127" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30714/index.do</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B128" t="str">
+        <v>RAYMOND F. WAGNER,</v>
+      </c>
+      <c r="C128" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M128" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30715/index.do</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Nathalie Dion, exECUTOR</v>
+      </c>
+      <c r="C129" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M129" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30658/index.do</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>N. Weisman</v>
+      </c>
+      <c r="B130" t="str">
+        <v>PRO-PHARMA CONTRACT SELLING SERVICES INC.,</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M130" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30728/index.do</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B131" t="str">
+        <v>CARL CURRIE,</v>
+      </c>
+      <c r="C131" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M131" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30736/index.do</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v xml:space="preserve"> Gaston Jorré</v>
+      </c>
+      <c r="B132" t="str">
+        <v>THÉRÈSE DESGAGNÉ,</v>
+      </c>
+      <c r="C132" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M132" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30724/index.do</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B133" t="str">
+        <v>MICHAEL J. BARKER,</v>
+      </c>
+      <c r="C133" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M133" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30730/index.do</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B134" t="str">
+        <v>MARY KELLY,</v>
+      </c>
+      <c r="C134" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M134" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30731/index.do</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v xml:space="preserve"> Johanne D'Auray</v>
+      </c>
+      <c r="B135" t="str">
+        <v>DANIEL RHEAUME,</v>
+      </c>
+      <c r="C135" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M135" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30733/index.do</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v xml:space="preserve"> Gaston Jorré</v>
+      </c>
+      <c r="B136" t="str">
+        <v>CALGARY BOARD OF EDUCATION,</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M136" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30677/index.do</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B137" t="str">
+        <v>M.A.P. (Mentorship, Aftercare, Presence),</v>
+      </c>
+      <c r="C137" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M137" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30734/index.do</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B138" t="str">
+        <v>KHEDIDJA MESSAR-SPLINTER,</v>
+      </c>
+      <c r="C138" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M138" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30740/index.do</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B139" t="str">
+        <v>BRUCE W. DOUGLAS,</v>
+      </c>
+      <c r="C139" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M139" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30735/index.do</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B140" t="str">
+        <v>RHETT LARSEN,</v>
+      </c>
+      <c r="C140" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M140" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30738/index.do</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B141" t="str">
+        <v>JEAN-GUY MALO,</v>
+      </c>
+      <c r="C141" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M141" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30739/index.do</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B142" t="str">
+        <v>GALINA MILOVA,</v>
+      </c>
+      <c r="C142" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M142" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30742/index.do</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Réal Favreau</v>
+      </c>
+      <c r="B143" t="str">
+        <v>JOSÉE OUELLET,</v>
+      </c>
+      <c r="C143" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M143" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30745/index.do</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B144" t="str">
+        <v>BELINDA J. SNOW,</v>
+      </c>
+      <c r="C144" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M144" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30741/index.do</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v xml:space="preserve"> T.E. Margeson</v>
+      </c>
+      <c r="B145" t="str">
+        <v>ALLAN McLARTY,</v>
+      </c>
+      <c r="C145" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M145" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30744/index.do</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B146" t="str">
+        <v>FRED WAGNER,</v>
+      </c>
+      <c r="C146" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M146" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30912/index.do</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B147" t="str">
+        <v>McCLARTY FAMILY TRUST,</v>
+      </c>
+      <c r="C147" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M147" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30858/index.do</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B148" t="str">
+        <v>EN HUANG,</v>
+      </c>
+      <c r="C148" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M148" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30743/index.do</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B149" t="str">
+        <v>DIANE JACQUES,</v>
+      </c>
+      <c r="C149" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M149" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30755/index.do</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B150" t="str">
+        <v>NICOLAS AKOURI,</v>
+      </c>
+      <c r="C150" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M150" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30746/index.do</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B151" t="str">
+        <v>SAMIPAL DHALIWAL,</v>
+      </c>
+      <c r="C151" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M151" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30749/index.do</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B152" t="str">
+        <v>ZENON KEDZIERSKI,</v>
+      </c>
+      <c r="C152" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M152" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30747/index.do</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v xml:space="preserve"> T.E. Margeson</v>
+      </c>
+      <c r="B153" t="str">
+        <v>TRANSALTA CORPORATION,</v>
+      </c>
+      <c r="C153" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M153" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30748/index.do</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v xml:space="preserve"> Paul Bédard</v>
+      </c>
+      <c r="B154" t="str">
+        <v>LAVIN ASSOCIÉS INC,</v>
+      </c>
+      <c r="C154" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M154" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30827/index.do</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B155" t="str">
+        <v>LEAH DIOME,</v>
+      </c>
+      <c r="C155" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M155" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30707/index.do</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B156" t="str">
+        <v>george trieste,</v>
+      </c>
+      <c r="C156" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M156" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30753/index.do</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Samir Sarophim,</v>
+      </c>
+      <c r="C157" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M157" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30752/index.do</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B158" t="str">
+        <v>DANIEL BÉLANGER,</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M158" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30772/index.do</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+      </c>
+      <c r="B159" t="str">
+        <v>ANDRÉ DROUIN,</v>
+      </c>
+      <c r="C159" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M159" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30751/index.do</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B160" t="str">
+        <v>MATTHEW J. VEGH,</v>
+      </c>
+      <c r="C160" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M160" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30765/index.do</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v xml:space="preserve"> J.M. Woods</v>
+      </c>
+      <c r="B161" t="str">
+        <v>SHIRAZ VIRANI,</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M161" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30754/index.do</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Valerie Miller</v>
+      </c>
+      <c r="B162" t="str">
+        <v>ROANEX HOMES LTD.,</v>
+      </c>
+      <c r="C162" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M162" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30759/index.do</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B163" t="str">
+        <v>JAMES ZSEBOK,</v>
+      </c>
+      <c r="C163" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M163" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30756/index.do</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Mr. Justice Randall Bocock</v>
+      </c>
+      <c r="B164" t="str">
+        <v>1443900 ONT. INC.</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2012</v>
+      </c>
+      <c r="M164" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31086/index.do</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M164"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TCCWEBAPP/TCC.xlsx
+++ b/TCCWEBAPP/TCC.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M285"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,1178 +445,1178 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Valerie Miller</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B2" t="str">
-        <v>RANDY J. OLLENBERGER,</v>
+        <v>JEAN-GUY LEBLANC,</v>
       </c>
       <c r="C2" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M2" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30857/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/27076/index.do</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
       </c>
       <c r="B3" t="str">
-        <v>MARIA LUCARELLI,</v>
+        <v>RICHARD M. KIERNICKI</v>
       </c>
       <c r="C3" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M3" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30931/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28550/index.do</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Diane Campbell</v>
       </c>
       <c r="B4" t="str">
-        <v>JAGMOHAN SINGH GILL,</v>
+        <v>S.W. UNDERHILL TRUCKING LTD.,</v>
       </c>
       <c r="C4" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M4" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30946/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28207/index.do</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> C.H. McArthur</v>
       </c>
       <c r="B5" t="str">
-        <v>ANNITA EMOND,</v>
+        <v>KEN R. DREAVER,</v>
       </c>
       <c r="C5" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M5" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30933/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28366/index.do</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B6" t="str">
-        <v>GROUPE HONCO INC.,</v>
+        <v>DANIEL DESROSIERS,</v>
       </c>
       <c r="C6" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M6" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30940/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28370/index.do</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> J.E. Hershfield</v>
+        <v xml:space="preserve"> E.A. Bowie</v>
       </c>
       <c r="B7" t="str">
-        <v>JI-HWAN PARK,</v>
+        <v>LOU A. SALVINO,</v>
       </c>
       <c r="C7" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M7" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30935/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28476/index.do</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v>C.H. McArthur</v>
       </c>
       <c r="B8" t="str">
-        <v>DEBORAH MAASS-HOWARD,</v>
+        <v>MARY LYNNE TESAINER</v>
       </c>
       <c r="C8" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M8" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31004/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28504/index.do</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> J.E. Hershfield</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B9" t="str">
-        <v>763993 ALBERTA LTD.,</v>
+        <v>KERRY PROPERTIES LIMITED,</v>
       </c>
       <c r="C9" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M9" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30936/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28478/index.do</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v>Associate Chief Justice Gerald J. Rip</v>
       </c>
       <c r="B10" t="str">
-        <v>SYLVIE GIGUÈRE,</v>
+        <v>MARIE AUKSTINAITIS,</v>
       </c>
       <c r="C10" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M10" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30945/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28481/index.do</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B11" t="str">
-        <v>JOHN MCEWEN,</v>
+        <v>HEATHER M. WOOD,</v>
       </c>
       <c r="C11" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M11" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30690/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28499/index.do</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> F.J. Pizzitelli</v>
+        <v>Gerald J. Rip</v>
       </c>
       <c r="B12" t="str">
-        <v>MARK TWOMEY,</v>
+        <v>CDSL CANADA LIMITED,</v>
       </c>
       <c r="C12" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M12" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30938/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28509/index.do</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve"> B. Paris</v>
+        <v xml:space="preserve"> Gaston Jorré</v>
       </c>
       <c r="B13" t="str">
-        <v>HARVEY CHADWICK,</v>
+        <v>MARTIN SAVARD,</v>
       </c>
       <c r="C13" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M13" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30939/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28498/index.do</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B14" t="str">
-        <v>LAIRD STEVENS,</v>
+        <v>DANIEL BOURRET,</v>
       </c>
       <c r="C14" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M14" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30961/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28520/index.do</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Diane Campbell</v>
+        <v xml:space="preserve"> M.A.Mogan</v>
       </c>
       <c r="B15" t="str">
-        <v>ROBERT ELWOOD,</v>
+        <v>ESTATE OF GORDON NOIK,</v>
       </c>
       <c r="C15" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M15" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30950/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28486/index.do</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Valerie Miller</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B16" t="str">
-        <v>GEORGE J. BRAKE,</v>
+        <v>MARIE ESTHER LOUISE CHEVALIER,</v>
       </c>
       <c r="C16" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M16" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30947/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28360/index.do</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B17" t="str">
-        <v>TERESA BRUNO,</v>
+        <v>LES ENTREPRISES LÉOPOLD SIMARD &amp; FILS INC.,</v>
       </c>
       <c r="C17" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M17" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30943/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29777/index.do</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Valerie Miller</v>
+        <v xml:space="preserve"> C.H. McArthur</v>
       </c>
       <c r="B18" t="str">
-        <v>OSWALD F. ROBERTS,</v>
+        <v>KAREN EHRHARDT,</v>
       </c>
       <c r="C18" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M18" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30948/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28484/index.do</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Lucie Lamarre</v>
       </c>
       <c r="B19" t="str">
-        <v>MOHAMMED RAHMAN,</v>
+        <v>DAVID HOMA,</v>
       </c>
       <c r="C19" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M19" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30949/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28519/index.do</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> E. P. Rossiter</v>
       </c>
       <c r="B20" t="str">
-        <v>MARGARET SWAIN,</v>
+        <v>JOHN DIMARIA,</v>
       </c>
       <c r="C20" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M20" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30979/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28528/index.do</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve"> Paul Bédard</v>
+        <v xml:space="preserve"> Diane Campbell</v>
       </c>
       <c r="B21" t="str">
-        <v>9098-9005 QUEBEC INC.,</v>
+        <v>LEONARD JOEL POLLOCK,</v>
       </c>
       <c r="C21" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M21" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30971/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28513/index.do</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve"> Valerie Miller</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B22" t="str">
-        <v>KATHRYN KOSSOW,</v>
+        <v>ROBERT MARCON,</v>
       </c>
       <c r="C22" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M22" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30953/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28487/index.do</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>F.J. Pizzitelli</v>
+        <v xml:space="preserve"> Diane Campbell</v>
       </c>
       <c r="B23" t="str">
-        <v>REYNOLD DICKIE,</v>
+        <v>GENERAL MOTORS OF CANADA LIMITED,</v>
       </c>
       <c r="C23" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M23" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30959/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28512/index.do</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Diane Campbell</v>
+        <v xml:space="preserve"> E.A. Bowie</v>
       </c>
       <c r="B24" t="str">
-        <v>LAWRENCE WATTS, ELIZABETH BROCCOLI, VINTON MURRAY and ALFRED J.R. ADJETY,</v>
+        <v>KEVIN MERCIER,</v>
       </c>
       <c r="C24" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M24" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30955/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29776/index.do</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B25" t="str">
-        <v>SHIRLEY PATRICIA MCKENZIE,</v>
+        <v>CAROLINE THIBEAULT,</v>
       </c>
       <c r="C25" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M25" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30983/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28524/index.do</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v xml:space="preserve"> Valerie Miller</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B26" t="str">
-        <v>WILLIAM A. LAWRENCE,</v>
+        <v>GYPSE ET JOINTS MPG RIVE-NORD,</v>
       </c>
       <c r="C26" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M26" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30954/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28361/index.do</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B27" t="str">
-        <v>YVONNE TUCK,</v>
+        <v>CLAUDETTE GAGNON,</v>
       </c>
       <c r="C27" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M27" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30956/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28588/index.do</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v xml:space="preserve"> Steven K. D'Arcy</v>
+        <v xml:space="preserve"> G. A. Sheridan</v>
       </c>
       <c r="B28" t="str">
-        <v>LANCE ANDERSON,</v>
+        <v>LANDMARK AUTO SALES LTD.,</v>
       </c>
       <c r="C28" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M28" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30960/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28518/index.do</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B29" t="str">
-        <v>DARLENE ANTHONY,</v>
+        <v>ROBIN LESSARD,</v>
       </c>
       <c r="C29" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M29" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30957/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28579/index.do</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B30" t="str">
-        <v>BRADMAN LEE,</v>
+        <v>JEAN-ROCK GAGNON,</v>
       </c>
       <c r="C30" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M30" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30958/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28580/index.do</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Chief Judge Gerald J. Rip</v>
+        <v>D.G.H. Bowman</v>
       </c>
       <c r="B31" t="str">
-        <v>DANIEL MARCOTTE,</v>
+        <v>JOLLY FARMER PRODUCTS INC.,</v>
       </c>
       <c r="C31" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M31" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30963/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28515/index.do</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Mr. Justice Randall Bocock</v>
+        <v xml:space="preserve"> Lucie Lamarre</v>
       </c>
       <c r="B32" t="str">
-        <v>RONALD SYDNEY PHILLIPS,</v>
+        <v>NELLY BITUALA‑MAYALA,</v>
       </c>
       <c r="C32" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M32" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30964/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28516/index.do</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mr. Justice Randall Bocock</v>
+        <v xml:space="preserve"> E.A. Bowie</v>
       </c>
       <c r="B33" t="str">
-        <v>VIKRAM NANDAKUMAR,</v>
+        <v>MARILYN DENHAAN,</v>
       </c>
       <c r="C33" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M33" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30965/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28517/index.do</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve"> Paul Bédard</v>
+        <v xml:space="preserve"> Gaston Jorré</v>
       </c>
       <c r="B34" t="str">
-        <v>PIERRE LABRECQUE,</v>
+        <v>LUCIE DESPOT,</v>
       </c>
       <c r="C34" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M34" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30986/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28857/index.do</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve"> Paul Bédard</v>
+        <v>D.G.H. Bowman</v>
       </c>
       <c r="B35" t="str">
-        <v>CLÉMENT GIROUX,</v>
+        <v>ALFRED MIOTTO,</v>
       </c>
       <c r="C35" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M35" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30966/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28566/index.do</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve"> Paul Bédard</v>
+        <v>Chief Justice D.G.H. Bowman</v>
       </c>
       <c r="B36" t="str">
-        <v>MARTIN PERRON,</v>
+        <v>1072174 ONTARIO LTD.,</v>
       </c>
       <c r="C36" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M36" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30967/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28607/index.do</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve"> Paul Bédard</v>
+        <v>Associate Chief Justice Gerald J. Rip</v>
       </c>
       <c r="B37" t="str">
-        <v>RÉAL BOUDREAU,</v>
+        <v>JOANNE LAMOTHE,</v>
       </c>
       <c r="C37" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M37" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30969/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28371/index.do</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve"> Paul Bédard</v>
+        <v xml:space="preserve"> G. A. Sheridan</v>
       </c>
       <c r="B38" t="str">
-        <v>SÉBASTIEN GIRARD (PRO GESTION 3000),</v>
+        <v>RONALD HEAPS,</v>
       </c>
       <c r="C38" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M38" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30970/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28526/index.do</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve"> B. Paris</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B39" t="str">
-        <v>CARLO MASSICOLLI,</v>
+        <v>126632 CANADA LTD.,</v>
       </c>
       <c r="C39" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M39" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30973/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28537/index.do</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> Campbell J. Miller</v>
       </c>
       <c r="B40" t="str">
-        <v>BALBIR KAUR BASI,</v>
+        <v>HENRY BOUBARD,</v>
       </c>
       <c r="C40" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M40" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30976/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28527/index.do</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v xml:space="preserve"> J.E. Hershfield</v>
+        <v xml:space="preserve"> B. Paris</v>
       </c>
       <c r="B41" t="str">
-        <v>SURREY CITY CENTRE MALL LTD.,</v>
+        <v>NICOLE VANASSE,</v>
       </c>
       <c r="C41" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M41" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30975/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28581/index.do</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B42" t="str">
-        <v>DOUGLAS JOHN SUTCLIFFE,</v>
+        <v>FREDERICTON COUNCIL FOR CHRISTIAN</v>
       </c>
       <c r="C42" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M42" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30974/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29182/index.do</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B43" t="str">
-        <v>SALVATORE PERAGINE,</v>
+        <v>TERRY DACOSTA,</v>
       </c>
       <c r="C43" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M43" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30977/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28621/index.do</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B44" t="str">
-        <v>AMY LE,</v>
+        <v>LANDREK INC.,</v>
       </c>
       <c r="C44" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M44" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30990/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28593/index.do</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Gaston Jorré</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B45" t="str">
-        <v>SARUP KUNDI,</v>
+        <v>LES PORTES ARCO INC.,</v>
       </c>
       <c r="C45" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M45" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30678/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28586/index.do</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B46" t="str">
-        <v>VICKI ANNE WELCH,</v>
+        <v>LES SÉCHOIRS À BOIS RENÉ BERNARD LTÉE,</v>
       </c>
       <c r="C46" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M46" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30978/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28592/index.do</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve"> Johanne D'Auray</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B47" t="str">
-        <v>MOTECH MOLDING INC. / MOTECH</v>
+        <v>SOCIÉTÉ DE TRANSPORT DE LAVAL,</v>
       </c>
       <c r="C47" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M47" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30982/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28523/index.do</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B48" t="str">
-        <v>GEOFFREY LAST,</v>
+        <v>LES ÉQUIPEMENTS WOODY INC.,</v>
       </c>
       <c r="C48" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M48" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30980/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28637/index.do</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> E. P. Rossiter</v>
       </c>
       <c r="B49" t="str">
-        <v>SUZANNE ASHTON</v>
+        <v>BRIAN BARTLEY,</v>
       </c>
       <c r="C49" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M49" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30981/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28530/index.do</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> E. P. Rossiter</v>
       </c>
       <c r="B50" t="str">
-        <v>STANISLAW PAWLAK, JADWIGA PAWLAK,</v>
+        <v>KATHY OKONSKI,</v>
       </c>
       <c r="C50" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M50" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30987/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28529/index.do</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> Judith Woods</v>
       </c>
       <c r="B51" t="str">
-        <v>SPRUCE CREDIT UNION,</v>
+        <v>LOGITEK TECHNOLOGY LTD.,</v>
       </c>
       <c r="C51" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M51" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30984/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28532/index.do</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mr. Justice Randall Bocock</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B52" t="str">
-        <v>THE BRENT KERN FAMILY TRUST,</v>
+        <v>NEW AGE TRANSPORT INC.,</v>
       </c>
       <c r="C52" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M52" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30993/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28582/index.do</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v>Campbell J. Miller</v>
       </c>
       <c r="B53" t="str">
-        <v>COLIN FOREMAN,</v>
+        <v>SARABJIT (SARABJEET) SINGH RAI,</v>
       </c>
       <c r="C53" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M53" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30689/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28584/index.do</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>B. Paris</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B54" t="str">
-        <v>OBARO OKOROZE,</v>
+        <v>SONEIL INTERNATIONAL LIMITED,</v>
       </c>
       <c r="C54" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M54" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30991/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28541/index.do</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Alain Tardif</v>
+        <v xml:space="preserve"> G. A. Sheridan</v>
       </c>
       <c r="B55" t="str">
-        <v>BOISSONNEAULT GROUPE IMMOBILIER INC.,</v>
+        <v>RANAPRATAP SINGH,</v>
       </c>
       <c r="C55" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M55" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30988/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28538/index.do</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> Valerie A. Miller</v>
       </c>
       <c r="B56" t="str">
-        <v>MICHELLE CAMPBELL,</v>
+        <v>KENNETH SCOTT,</v>
       </c>
       <c r="C56" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M56" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30995/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28536/index.do</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v xml:space="preserve"> Pierre Archambault</v>
+        <v xml:space="preserve"> Valerie A. Miller</v>
       </c>
       <c r="B57" t="str">
-        <v>9101-2310 QUÉBEC INC.,</v>
+        <v>BILL SLADE,</v>
       </c>
       <c r="C57" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M57" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30997/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28539/index.do</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v xml:space="preserve"> Alain Tardif</v>
+        <v>D.G.H. Bowman</v>
       </c>
       <c r="B58" t="str">
-        <v>LABORATOIRE DU-VAR INC.,</v>
+        <v>RANDALL C. McMATH,</v>
       </c>
       <c r="C58" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M58" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30994/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28583/index.do</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v xml:space="preserve"> Alain Tardif</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B59" t="str">
-        <v>DANIELLE LEMIRE,</v>
+        <v>LESLIE PRICE,</v>
       </c>
       <c r="C59" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M59" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30992/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28595/index.do</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v>Justice D.W. Beaubier</v>
       </c>
       <c r="B60" t="str">
-        <v>SUNNY LYTLE,</v>
+        <v>TERESE LAVERNE ROBERTSON,</v>
       </c>
       <c r="C60" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M60" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31036/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28542/index.do</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v>D.G.H. Bowman</v>
       </c>
       <c r="B61" t="str">
-        <v>NORTH DELTA REAL HOT YOGA LTD.,</v>
+        <v>TOM J. LOCKHART,</v>
       </c>
       <c r="C61" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M61" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31071/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28556/index.do</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v xml:space="preserve"> Alain Tardif</v>
+        <v xml:space="preserve"> Gaston Jorré</v>
       </c>
       <c r="B62" t="str">
-        <v>MARTIAL MORISSETTE,</v>
+        <v>GROUPE J.L. LECLERC INC.,</v>
       </c>
       <c r="C62" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M62" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30705/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28585/index.do</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B63" t="str">
-        <v>ANA C. DEAN, o/a ANA’S CARE &amp; HOME SUPPORT,</v>
+        <v>ANTHONY MARCHAN,</v>
       </c>
       <c r="C63" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M63" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30998/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28540/index.do</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v xml:space="preserve"> G. A. Sheridan</v>
       </c>
       <c r="B64" t="str">
-        <v>HASSAN YAZDANI,</v>
+        <v>DAVID ARTHUR PAUL,</v>
       </c>
       <c r="C64" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M64" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30996/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28555/index.do</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v xml:space="preserve"> Campbell J. Miller</v>
+        <v xml:space="preserve"> Gaston Jorré</v>
       </c>
       <c r="B65" t="str">
-        <v>KEVIN D'AMORE,</v>
+        <v>ROGER THIBAULT,</v>
       </c>
       <c r="C65" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M65" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31000/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28377/index.do</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> E. P. Rossiter</v>
       </c>
       <c r="B66" t="str">
-        <v>FRANCE MARTEL,</v>
+        <v>PETER MUDRY,</v>
       </c>
       <c r="C66" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M66" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31001/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28558/index.do</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v xml:space="preserve"> T.E. Margeson</v>
+        <v xml:space="preserve"> E.A. Bowie</v>
       </c>
       <c r="B67" t="str">
-        <v>TRANSALTA CORPORATION,</v>
+        <v>LUBOV SURIKOV,</v>
       </c>
       <c r="C67" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M67" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30999/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28562/index.do</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Campbell J. Miller</v>
       </c>
       <c r="B68" t="str">
-        <v>1726437 ONTARIO INC. o/a</v>
+        <v>MARTIN R. GRANT,</v>
       </c>
       <c r="C68" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M68" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31003/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28557/index.do</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B69" t="str">
-        <v>SWS COMMUNICATION INC.,</v>
+        <v>DENISE BONIN,</v>
       </c>
       <c r="C69" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M69" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31002/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28601/index.do</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v xml:space="preserve"> Campbell J. Miller</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B70" t="str">
-        <v>JULIE BURKE,</v>
+        <v>LUC BERGERON,</v>
       </c>
       <c r="C70" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M70" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31005/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28598/index.do</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v xml:space="preserve"> Valerie Miller</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B71" t="str">
-        <v>JUDITH MACLEOD,</v>
+        <v>CLAUDE H. SAUVAGEAU,</v>
       </c>
       <c r="C71" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M71" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31006/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28599/index.do</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B72" t="str">
-        <v>JUDY LEQUIER,</v>
+        <v>CGU HOLDINGS CANADA LTD.,</v>
       </c>
       <c r="C72" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M72" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31007/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28560/index.do</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Jean-Louis Batiot</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B73" t="str">
-        <v>CHARLES TOUPIN,</v>
+        <v>RAMDAI MISIR,</v>
       </c>
       <c r="C73" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M73" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31012/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28561/index.do</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mr. Justice Randall Bocock</v>
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
       </c>
       <c r="B74" t="str">
-        <v>RENATE BRAUER,</v>
+        <v>9060-8795 QUÉBEC INC. (FERME OASIS),</v>
       </c>
       <c r="C74" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M74" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31008/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28565/index.do</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mr. Justice Randall Bocock</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B75" t="str">
-        <v>YOUNG TILE INC.,</v>
+        <v>YVES BEAUDRY,</v>
       </c>
       <c r="C75" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M75" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31009/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28444/index.do</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v xml:space="preserve"> François Angers</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B76" t="str">
-        <v>ALINE LÉVESQUE,</v>
+        <v>JOSEPH CAMPBELL,</v>
       </c>
       <c r="C76" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M76" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31011/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29094/index.do</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B77" t="str">
-        <v>SUCCESSION OF SUZIE BROUSSEAU,</v>
+        <v>LISE C. COUTURE,</v>
       </c>
       <c r="C77" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M77" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31010/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28569/index.do</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v xml:space="preserve"> B. Paris</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B78" t="str">
-        <v>MAWUEWO K.J. AFOVIA,</v>
+        <v>JOAN M. MEREDITH,</v>
       </c>
       <c r="C78" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M78" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31013/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28563/index.do</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v xml:space="preserve"> Diane Campbell</v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B79" t="str">
-        <v>SURINDER HAYER,</v>
+        <v>SHARAN GOLDEN,</v>
       </c>
       <c r="C79" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M79" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31015/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28564/index.do</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B80" t="str">
-        <v>MAC'S CONVENIENCE STORES INC.,</v>
+        <v>PATRICK LESSARD,</v>
       </c>
       <c r="C80" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M80" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31016/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28568/index.do</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B81" t="str">
-        <v>BILL JORDAN,</v>
+        <v>LIANGHONG LI,</v>
       </c>
       <c r="C81" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M81" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31014/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28571/index.do</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v xml:space="preserve"> Jean-Louis Batiot</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B82" t="str">
-        <v>LES CONSTRUCTIONS MARABELLA INC.,</v>
+        <v>GINETTE TAUPIER GIRARD,</v>
       </c>
       <c r="C82" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M82" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31020/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28701/index.do</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> E.A. Bowie</v>
       </c>
       <c r="B83" t="str">
-        <v>WALFRED ERICKSON,</v>
+        <v>MOIRA-EILEEN DROSDOVECH,</v>
       </c>
       <c r="C83" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M83" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31017/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28590/index.do</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v>E.A. Bowie</v>
       </c>
       <c r="B84" t="str">
-        <v>1259066 ONTARIO LIMITED,</v>
+        <v>ARTHUR ROMAN ZINS,</v>
       </c>
       <c r="C84" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M84" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31028/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28882/index.do</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> T. E. Margeson</v>
       </c>
       <c r="B85" t="str">
-        <v>INTEGRANUITY MARKETING LTD.,</v>
+        <v>TRIPLE G. CORPORATION INC.,</v>
       </c>
       <c r="C85" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M85" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30653/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28623/index.do</v>
       </c>
     </row>
     <row r="86">
@@ -1624,951 +1624,951 @@
         <v xml:space="preserve"> Gaston Jorré</v>
       </c>
       <c r="B86" t="str">
-        <v>HÉLÈNE L. PERRON,</v>
+        <v>DJIVAPREMDJEE BADOURALY,</v>
       </c>
       <c r="C86" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M86" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30691/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28587/index.do</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B87" t="str">
-        <v>9134-2485 QUEBEC INC.,</v>
+        <v>NADINE W. GOODWIN,</v>
       </c>
       <c r="C87" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M87" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31019/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28693/index.do</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
       </c>
       <c r="B88" t="str">
-        <v>ALEXANDER TRAN,</v>
+        <v>BRIGID A. SHEA,</v>
       </c>
       <c r="C88" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M88" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31021/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28572/index.do</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>B. Paris</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B89" t="str">
-        <v>MICHAEL PALANGIO,</v>
+        <v>JOHN MELINTE,</v>
       </c>
       <c r="C89" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M89" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31022/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28606/index.do</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Mr. Justice Randall Bocock</v>
+        <v xml:space="preserve"> Judith Woods</v>
       </c>
       <c r="B90" t="str">
-        <v>ALLEN BERG,</v>
+        <v>SIMONE SHERMAN,</v>
       </c>
       <c r="C90" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M90" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31023/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28573/index.do</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Gaston Jorré</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B91" t="str">
-        <v>TERASEN INTERNATIONAL INC.</v>
+        <v>BERNADINE JACKSON,</v>
       </c>
       <c r="C91" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M91" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31054/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28600/index.do</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v xml:space="preserve"> Valerie Miller</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B92" t="str">
-        <v>THE ESTATE OF THE LATE ANNA NTAKOS,</v>
+        <v>RICHARD BEAUCHAMP,</v>
       </c>
       <c r="C92" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M92" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31024/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28654/index.do</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v xml:space="preserve"> G. A. Sheridan</v>
+        <v>C.H. McArthur</v>
       </c>
       <c r="B93" t="str">
-        <v>MICHAEL E. DUKE,</v>
+        <v>HYMAN M. AIZENBERG,</v>
       </c>
       <c r="C93" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M93" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30694/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28403/index.do</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Chief Justice Gerald J. Rip</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B94" t="str">
-        <v>ÉCOLE DE LANGUES ABCE INC.,</v>
+        <v>DIANE GERVAIS,</v>
       </c>
       <c r="C94" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M94" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31025/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28659/index.do</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v xml:space="preserve"> François Angers</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B95" t="str">
-        <v>GEORGIOS (GEORGE) PRIFTIS,</v>
+        <v>GINETTE LAFONTAINE,</v>
       </c>
       <c r="C95" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M95" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31035/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28605/index.do</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B96" t="str">
-        <v>MARIE-CLAUDE POULIN,</v>
+        <v>DONALD POLLEY,</v>
       </c>
       <c r="C96" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M96" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31032/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28618/index.do</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v xml:space="preserve"> Johanne D’Auray</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B97" t="str">
-        <v>CONSTRUCTION BIAGIO MAIORINO INC.,</v>
+        <v>YOUNES AJAMI ARAB,</v>
       </c>
       <c r="C97" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M97" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31026/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28680/index.do</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v xml:space="preserve"> Campbell J. Miller</v>
+        <v xml:space="preserve"> E.A. Bowie</v>
       </c>
       <c r="B98" t="str">
-        <v>OM P. MITTAL,</v>
+        <v>STARSKY ENTERPRISES INC.,</v>
       </c>
       <c r="C98" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M98" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31027/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28591/index.do</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v xml:space="preserve"> G. A. Sheridan</v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B99" t="str">
-        <v>DARYL CHRISTENSEN,</v>
+        <v>853998 ONTARIO INC. op B &amp; B EXPRESS,</v>
       </c>
       <c r="C99" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M99" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30695/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29798/index.do</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v xml:space="preserve"> Campbell J. Miller</v>
+        <v>Gaston Jorré</v>
       </c>
       <c r="B100" t="str">
-        <v>NRT TECHNOLOGY CORP.,</v>
+        <v>GREGORY SCOTT MOHOS,</v>
       </c>
       <c r="C100" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M100" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31030/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28577/index.do</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Campbell J. Miller</v>
       </c>
       <c r="B101" t="str">
-        <v>DALI BENTOLILA,</v>
+        <v>ROBERT GLEGG INVESTMENT INC.,</v>
       </c>
       <c r="C101" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M101" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31033/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28367/index.do</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B102" t="str">
-        <v>830480 ALBERTA INC.,</v>
+        <v>SANDY KOZAR,</v>
       </c>
       <c r="C102" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M102" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31031/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28575/index.do</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Rommel G. Masse</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B103" t="str">
-        <v>CHANTAL CONSTANTIN,</v>
+        <v>MATRIX MANAGEMENT INC.,</v>
       </c>
       <c r="C103" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M103" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31078/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28597/index.do</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v>C.H. McArthur</v>
       </c>
       <c r="B104" t="str">
-        <v>LAURIANNE GAUCHER,</v>
+        <v>STEPHEN RAPHAEL,</v>
       </c>
       <c r="C104" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M104" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30696/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28883/index.do</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v xml:space="preserve"> Valerie Miller</v>
+        <v>D.W. Beaubier,</v>
       </c>
       <c r="B105" t="str">
-        <v>FIONA J. EDWARDS,</v>
+        <v>PRAKASH CHANDRA JATTAN,</v>
       </c>
       <c r="C105" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M105" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31034/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28594/index.do</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v xml:space="preserve"> B. Paris</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B106" t="str">
-        <v>NORAN WEST DEVELOPMENTS LTD.,</v>
+        <v>GESTION RAYNALD LAVOIE INC.,</v>
       </c>
       <c r="C106" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M106" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31038/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28684/index.do</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> M.A. Mogan</v>
       </c>
       <c r="B107" t="str">
-        <v>DARLENE STEWART,</v>
+        <v>JANET BUTTERS,</v>
       </c>
       <c r="C107" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M107" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31037/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28576/index.do</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B108" t="str">
-        <v>ALGONQUIN LANDSCAPING LTD.,</v>
+        <v>JOHN W. HARRISON,</v>
       </c>
       <c r="C108" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M108" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31039/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28596/index.do</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v xml:space="preserve"> Gaston Jorré</v>
+        <v xml:space="preserve"> Diane Campbell</v>
       </c>
       <c r="B109" t="str">
-        <v>SYNER/PLUS INC.,</v>
+        <v>CAROLE PECHET,</v>
       </c>
       <c r="C109" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M109" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30697/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28602/index.do</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B110" t="str">
-        <v>KARL KRATOCHWIL,</v>
+        <v>ARTHUR ST-PIERRE,</v>
       </c>
       <c r="C110" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M110" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30698/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28617/index.do</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v xml:space="preserve"> Campbell J. Miller</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B111" t="str">
-        <v>IAN BROWN,</v>
+        <v>DARYL J. BARTON,</v>
       </c>
       <c r="C111" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M111" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31043/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28589/index.do</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B112" t="str">
-        <v>BRENDA WALKOWIAK,</v>
+        <v>YVON PARIS,</v>
       </c>
       <c r="C112" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M112" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31044/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28636/index.do</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B113" t="str">
-        <v>JOHN E. KUCH,</v>
+        <v>JEAN-SÉBASTIEN SIMÉON,</v>
       </c>
       <c r="C113" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M113" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31045/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28674/index.do</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v xml:space="preserve"> Steven K. D’Arcy</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B114" t="str">
-        <v>ELENA SHULKOV,</v>
+        <v>MOHSEN BOUALLEG,</v>
       </c>
       <c r="C114" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M114" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31046/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28699/index.do</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B115" t="str">
-        <v>MARGARET SWAIN,</v>
+        <v>PROMOTIONS C.D. INC.,</v>
       </c>
       <c r="C115" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M115" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30701/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28649/index.do</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v xml:space="preserve"> Gaston Jorré</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B116" t="str">
-        <v>2868-3977 QUÉBEC INC.,</v>
+        <v>JOSEPH AZRAK,</v>
       </c>
       <c r="C116" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M116" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30700/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28622/index.do</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B117" t="str">
-        <v>JO-ANN NADALIN,</v>
+        <v>SUSANNE IWANOW,</v>
       </c>
       <c r="C117" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M117" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30703/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28372/index.do</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> T. E. Margeson</v>
       </c>
       <c r="B118" t="str">
-        <v>TEHSEEN FATIMA,</v>
+        <v>507582 B.C. LTD.,</v>
       </c>
       <c r="C118" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M118" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30699/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28658/index.do</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B119" t="str">
-        <v>GIFFORD H. TOOLE,</v>
+        <v>DENNIS BONOTTO,</v>
       </c>
       <c r="C119" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M119" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30702/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28634/index.do</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v>Pierre Archambault</v>
       </c>
       <c r="B120" t="str">
-        <v>JAMES O. GROSSETT,</v>
+        <v>GINA CONSTANTIN,</v>
       </c>
       <c r="C120" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M120" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30710/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28817/index.do</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B121" t="str">
-        <v>VIDA BRUCE,</v>
+        <v>PAN-O-LAC LTÉE,</v>
       </c>
       <c r="C121" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M121" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30704/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28662/index.do</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v xml:space="preserve"> Johanne D’Auray</v>
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
       </c>
       <c r="B122" t="str">
-        <v>JACQUES POISSON,</v>
+        <v>MARCEL BEAUREGARD,</v>
       </c>
       <c r="C122" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M122" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30713/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28610/index.do</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v xml:space="preserve"> G. A. Sheridan</v>
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
       </c>
       <c r="B123" t="str">
-        <v>DAVID LAM,</v>
+        <v>ANDRÉ DUGAS,</v>
       </c>
       <c r="C123" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M123" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30708/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28608/index.do</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> L.M. Little</v>
       </c>
       <c r="B124" t="str">
-        <v>MORGUARD CORPORATION,</v>
+        <v>NEVILLE GALE,</v>
       </c>
       <c r="C124" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M124" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30725/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28616/index.do</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v xml:space="preserve"> G. A. Sheridan</v>
+        <v xml:space="preserve"> Valerie A. Miller</v>
       </c>
       <c r="B125" t="str">
-        <v>AZIZULLAH HAFIZY,</v>
+        <v>CRAIG FRASER,</v>
       </c>
       <c r="C125" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M125" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30709/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28609/index.do</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+        <v xml:space="preserve"> Patrick Boyle</v>
       </c>
       <c r="B126" t="str">
-        <v>VELCRO CANADA INC.,</v>
+        <v>GARY ALLEN POTTER,</v>
       </c>
       <c r="C126" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M126" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30726/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28767/index.do</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v xml:space="preserve"> Valerie Miller</v>
+        <v>Pierre Archambault</v>
       </c>
       <c r="B127" t="str">
-        <v>DOLORES ROMANUK,</v>
+        <v>ROGER ST‑FORT,</v>
       </c>
       <c r="C127" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M127" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30714/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28393/index.do</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v xml:space="preserve"> François Angers</v>
+        <v>Gerald J. Rip</v>
       </c>
       <c r="B128" t="str">
-        <v>RAYMOND F. WAGNER,</v>
+        <v>PRÉVOST CAR INC.,</v>
       </c>
       <c r="C128" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M128" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30715/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28612/index.do</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B129" t="str">
-        <v>Nathalie Dion, exECUTOR</v>
+        <v>PETER RAGSDALE,</v>
       </c>
       <c r="C129" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M129" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30658/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28626/index.do</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>N. Weisman</v>
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
       </c>
       <c r="B130" t="str">
-        <v>PRO-PHARMA CONTRACT SELLING SERVICES INC.,</v>
+        <v>JEAN-GUY CADORETTE,</v>
       </c>
       <c r="C130" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M130" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30728/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28613/index.do</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> Valerie A. Miller</v>
       </c>
       <c r="B131" t="str">
-        <v>CARL CURRIE,</v>
+        <v>RICHARD FERDINAND MOLL,</v>
       </c>
       <c r="C131" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M131" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30736/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28619/index.do</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v xml:space="preserve"> Gaston Jorré</v>
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
       </c>
       <c r="B132" t="str">
-        <v>THÉRÈSE DESGAGNÉ,</v>
+        <v>ESTATE OF ANDRÉE JALBERT,</v>
       </c>
       <c r="C132" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M132" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30724/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28614/index.do</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v xml:space="preserve"> G. A. Sheridan</v>
+        <v xml:space="preserve"> Pierre Archambault</v>
       </c>
       <c r="B133" t="str">
-        <v>MICHAEL J. BARKER,</v>
+        <v>ADP CANADA CO. (SUCCESSOR TO</v>
       </c>
       <c r="C133" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M133" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30730/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28681/index.do</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v xml:space="preserve"> G. A. Sheridan</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B134" t="str">
-        <v>MARY KELLY,</v>
+        <v>NICKOLAOS SIDERIS,</v>
       </c>
       <c r="C134" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M134" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30731/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28615/index.do</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v xml:space="preserve"> Johanne D'Auray</v>
+        <v>Valerie A. Miller</v>
       </c>
       <c r="B135" t="str">
-        <v>DANIEL RHEAUME,</v>
+        <v>YUI CHEUNG KWOK,</v>
       </c>
       <c r="C135" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M135" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30733/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28627/index.do</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v xml:space="preserve"> Gaston Jorré</v>
+        <v xml:space="preserve"> Wyman W. Webb</v>
       </c>
       <c r="B136" t="str">
-        <v>CALGARY BOARD OF EDUCATION,</v>
+        <v>MICHAEL SOMERS,</v>
       </c>
       <c r="C136" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M136" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30677/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28673/index.do</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> L.M. Little</v>
       </c>
       <c r="B137" t="str">
-        <v>M.A.P. (Mentorship, Aftercare, Presence),</v>
+        <v>FAROUK A. ALBAYATE,</v>
       </c>
       <c r="C137" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M137" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30734/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28378/index.do</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v xml:space="preserve"> François Angers</v>
       </c>
       <c r="B138" t="str">
-        <v>KHEDIDJA MESSAR-SPLINTER,</v>
+        <v>ROBERT VERRET,</v>
       </c>
       <c r="C138" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M138" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30740/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28663/index.do</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B139" t="str">
-        <v>BRUCE W. DOUGLAS,</v>
+        <v>BERNARD FAIBISH,</v>
       </c>
       <c r="C139" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M139" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30735/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28633/index.do</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v xml:space="preserve"> Wyman W. Webb</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B140" t="str">
-        <v>RHETT LARSEN,</v>
+        <v>RÉJEANNE LEBLANC,</v>
       </c>
       <c r="C140" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M140" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30738/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28695/index.do</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Judith Woods</v>
       </c>
       <c r="B141" t="str">
-        <v>JEAN-GUY MALO,</v>
+        <v>ALLAN FENWICK,</v>
       </c>
       <c r="C141" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M141" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30739/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28624/index.do</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v xml:space="preserve"> Robert J. Hogan</v>
+        <v xml:space="preserve"> Alain Tardif</v>
       </c>
       <c r="B142" t="str">
-        <v>GALINA MILOVA,</v>
+        <v>MARIE-FRANCE ROULEAU,</v>
       </c>
       <c r="C142" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M142" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30742/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28691/index.do</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Réal Favreau</v>
+        <v xml:space="preserve"> Gaston Jorré</v>
       </c>
       <c r="B143" t="str">
-        <v>JOSÉE OUELLET,</v>
+        <v>SONIA GIRARD,</v>
       </c>
       <c r="C143" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M143" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30745/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28640/index.do</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Lucie Lamarre</v>
       </c>
       <c r="B144" t="str">
-        <v>BELINDA J. SNOW,</v>
+        <v>GARAGE A. D. INC.,</v>
       </c>
       <c r="C144" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M144" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30741/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28625/index.do</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v xml:space="preserve"> T.E. Margeson</v>
+        <v>Wyman W. Webb</v>
       </c>
       <c r="B145" t="str">
-        <v>ALLAN McLARTY,</v>
+        <v>NORMAN J. WILSON,</v>
       </c>
       <c r="C145" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M145" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30744/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28739/index.do</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v xml:space="preserve"> Réal Favreau</v>
+        <v xml:space="preserve"> J.E. Hershfield</v>
       </c>
       <c r="B146" t="str">
-        <v>FRED WAGNER,</v>
+        <v>ELLEN WARD,</v>
       </c>
       <c r="C146" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M146" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30912/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28491/index.do</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v xml:space="preserve"> François Angers</v>
+        <v xml:space="preserve"> T. E. Margeson</v>
       </c>
       <c r="B147" t="str">
-        <v>McCLARTY FAMILY TRUST,</v>
+        <v>NICK KANAVAROS,</v>
       </c>
       <c r="C147" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M147" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30858/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28672/index.do</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Lucie Lamarre</v>
       </c>
       <c r="B148" t="str">
-        <v>EN HUANG,</v>
+        <v>GUY LAFLAMME,</v>
       </c>
       <c r="C148" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M148" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30743/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28632/index.do</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v xml:space="preserve"> François Angers</v>
+        <v>Gerald J. Rip</v>
       </c>
       <c r="B149" t="str">
-        <v>DIANE JACQUES,</v>
+        <v>GENERAL ELECTRIC CAPITAL CANADA INC.,</v>
       </c>
       <c r="C149" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M149" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30755/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28629/index.do</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B150" t="str">
-        <v>NICOLAS AKOURI,</v>
+        <v>JEAN-CLAUDE RICHARD, S/N PRODUITS</v>
       </c>
       <c r="C150" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M150" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30746/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28683/index.do</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v>D.G.H. Bowman</v>
       </c>
       <c r="B151" t="str">
-        <v>SAMIPAL DHALIWAL,</v>
+        <v>HENRY RACHFALOWSKI,</v>
       </c>
       <c r="C151" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M151" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30749/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28679/index.do</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v>D.G.H. Bowman</v>
       </c>
       <c r="B152" t="str">
-        <v>ZENON KEDZIERSKI,</v>
+        <v>OAK RIDGES LUMBER CORP.,</v>
       </c>
       <c r="C152" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M152" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30747/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28697/index.do</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v xml:space="preserve"> T.E. Margeson</v>
+        <v>D.G.H. Bowman</v>
       </c>
       <c r="B153" t="str">
-        <v>TRANSALTA CORPORATION,</v>
+        <v>AMIRTHALINGAM SIVASUBRAMANIAM,</v>
       </c>
       <c r="C153" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M153" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30748/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28702/index.do</v>
       </c>
     </row>
     <row r="154">
@@ -2576,55 +2576,55 @@
         <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B154" t="str">
-        <v>LAVIN ASSOCIÉS INC,</v>
+        <v>ROYAL LAROCHE,</v>
       </c>
       <c r="C154" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M154" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30827/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28648/index.do</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v xml:space="preserve"> François Angers</v>
+        <v xml:space="preserve"> L.M. Little</v>
       </c>
       <c r="B155" t="str">
-        <v>LEAH DIOME,</v>
+        <v>RONALD CAPUTO,</v>
       </c>
       <c r="C155" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M155" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30707/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28694/index.do</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> L.M. Little</v>
       </c>
       <c r="B156" t="str">
-        <v>george trieste,</v>
+        <v>GARRET MADELL,</v>
       </c>
       <c r="C156" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M156" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30753/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28698/index.do</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v xml:space="preserve"> Lucie Lamarre</v>
+        <v xml:space="preserve"> L.M. Little</v>
       </c>
       <c r="B157" t="str">
-        <v>Samir Sarophim,</v>
+        <v>MERVIN FALKENBERG,</v>
       </c>
       <c r="C157" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M157" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30752/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28703/index.do</v>
       </c>
     </row>
     <row r="158">
@@ -2632,102 +2632,1796 @@
         <v xml:space="preserve"> Réal Favreau</v>
       </c>
       <c r="B158" t="str">
-        <v>DANIEL BÉLANGER,</v>
+        <v>AGRIMÉTAL INC.,</v>
       </c>
       <c r="C158" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M158" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30772/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28639/index.do</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+        <v xml:space="preserve"> L.M. Little</v>
       </c>
       <c r="B159" t="str">
-        <v>ANDRÉ DROUIN,</v>
+        <v>JOHN STORWICK, SR.,</v>
       </c>
       <c r="C159" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M159" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30751/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28705/index.do</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v xml:space="preserve"> Patrick Boyle</v>
+        <v xml:space="preserve"> Paul Bédard</v>
       </c>
       <c r="B160" t="str">
-        <v>MATTHEW J. VEGH,</v>
+        <v>LES ENTREPRISES CHARLES MAISONNEUVE LTÉE,</v>
       </c>
       <c r="C160" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M160" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30765/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28645/index.do</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v xml:space="preserve"> J.M. Woods</v>
+        <v xml:space="preserve"> T. E. Margeson</v>
       </c>
       <c r="B161" t="str">
-        <v>SHIRAZ VIRANI,</v>
+        <v>PETER AND MARLENE YAKABUSKI,</v>
       </c>
       <c r="C161" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M161" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30754/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28375/index.do</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Valerie Miller</v>
+        <v xml:space="preserve"> C.H. McArthur</v>
       </c>
       <c r="B162" t="str">
-        <v>ROANEX HOMES LTD.,</v>
+        <v>RICHARD BETCHER,</v>
       </c>
       <c r="C162" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M162" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30759/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28631/index.do</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v xml:space="preserve"> G. A. Sheridan</v>
+        <v>Wyman W. Webb</v>
       </c>
       <c r="B163" t="str">
-        <v>JAMES ZSEBOK,</v>
+        <v>DEBRA KAY,</v>
       </c>
       <c r="C163" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M163" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30756/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28628/index.do</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Mr. Justice Randall Bocock</v>
+        <v>Wyman W. Webb</v>
       </c>
       <c r="B164" t="str">
-        <v>1443900 ONT. INC.</v>
+        <v>PETER BARRY,</v>
       </c>
       <c r="C164" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M164" t="str">
-        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31086/index.do</v>
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28799/index.do</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B165" t="str">
+        <v>MEIR LEVY,</v>
+      </c>
+      <c r="C165" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M165" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28630/index.do</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>C.H. McArthur</v>
+      </c>
+      <c r="B166" t="str">
+        <v>MARC JOLIN,</v>
+      </c>
+      <c r="C166" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M166" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28641/index.do</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B167" t="str">
+        <v>MODELERIE DORVAL INC.,</v>
+      </c>
+      <c r="C167" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M167" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28642/index.do</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v xml:space="preserve"> Paul Bédard</v>
+      </c>
+      <c r="B168" t="str">
+        <v>9122-5789 QUÉBEC INC.,</v>
+      </c>
+      <c r="C168" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M168" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28670/index.do</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v xml:space="preserve"> E.A.Bowie</v>
+      </c>
+      <c r="B169" t="str">
+        <v>GOOD EQUIPMENT LIMITED,</v>
+      </c>
+      <c r="C169" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M169" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28373/index.do</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B170" t="str">
+        <v>ST-ISIDORE ÉCONO CENTRE INC.,</v>
+      </c>
+      <c r="C170" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M170" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28760/index.do</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Gaston Jorré</v>
+      </c>
+      <c r="B171" t="str">
+        <v>LUCIE DESPOT,</v>
+      </c>
+      <c r="C171" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M171" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28700/index.do</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Campbell J. Miller</v>
+      </c>
+      <c r="B172" t="str">
+        <v>SEAN WALSH and</v>
+      </c>
+      <c r="C172" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M172" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28704/index.do</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
+      </c>
+      <c r="B173" t="str">
+        <v>PÂTISSERIES JESSICA INC.,</v>
+      </c>
+      <c r="C173" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M173" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28766/index.do</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B174" t="str">
+        <v>THE TORONTO-DOMINION BANK,</v>
+      </c>
+      <c r="C174" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M174" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28682/index.do</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B175" t="str">
+        <v>EVELYNE RANCOURT,</v>
+      </c>
+      <c r="C175" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M175" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28660/index.do</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
+      </c>
+      <c r="B176" t="str">
+        <v>NICOLINO PENTA,</v>
+      </c>
+      <c r="C176" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M176" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28668/index.do</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>D.W. Beaubier</v>
+      </c>
+      <c r="B177" t="str">
+        <v>KEVIN MCKINNEY,</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M177" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28667/index.do</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>D.W. Beaubier</v>
+      </c>
+      <c r="B178" t="str">
+        <v>KEVIN MCKINNEY,</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M178" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28690/index.do</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v xml:space="preserve"> Judith Woods</v>
+      </c>
+      <c r="B179" t="str">
+        <v>JOAN COOMBS,</v>
+      </c>
+      <c r="C179" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M179" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28706/index.do</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>T.E. Margeson</v>
+      </c>
+      <c r="B180" t="str">
+        <v>ZOFIA KIEFER,</v>
+      </c>
+      <c r="C180" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M180" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28675/index.do</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v xml:space="preserve"> T. O'Connor</v>
+      </c>
+      <c r="B181" t="str">
+        <v>GUEST VIDEO INC.,</v>
+      </c>
+      <c r="C181" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M181" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28688/index.do</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v xml:space="preserve"> Valerie A. Miller</v>
+      </c>
+      <c r="B182" t="str">
+        <v>RICHARD LORNE JANZEN,</v>
+      </c>
+      <c r="C182" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M182" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28689/index.do</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B183" t="str">
+        <v>CHRIS BRIAN JONES,</v>
+      </c>
+      <c r="C183" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M183" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28671/index.do</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B184" t="str">
+        <v>JAMES GORDON MULLEN,</v>
+      </c>
+      <c r="C184" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M184" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28676/index.do</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v xml:space="preserve"> C.H. McArthur</v>
+      </c>
+      <c r="B185" t="str">
+        <v>CRYSTAL NEWELL,</v>
+      </c>
+      <c r="C185" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M185" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28685/index.do</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v xml:space="preserve"> E.A. Bowie</v>
+      </c>
+      <c r="B186" t="str">
+        <v>MINISTIC AIR LTD.,</v>
+      </c>
+      <c r="C186" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M186" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28696/index.do</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Patrick Boyle</v>
+      </c>
+      <c r="B187" t="str">
+        <v>TOM HOCHHAUSEN,</v>
+      </c>
+      <c r="C187" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M187" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29007/index.do</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Gerald J. Rip</v>
+      </c>
+      <c r="B188" t="str">
+        <v>INTERNATIONAL CHARITY ASSOCIATION NETWORK,</v>
+      </c>
+      <c r="C188" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M188" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/31018/index.do</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v xml:space="preserve"> Pierre Archambault</v>
+      </c>
+      <c r="B189" t="str">
+        <v>NCJ EDUCATIONAL SERVICES LIMITED,</v>
+      </c>
+      <c r="C189" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M189" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28904/index.do</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>B. Paris</v>
+      </c>
+      <c r="B190" t="str">
+        <v>725685 ALBERTA LTD.,</v>
+      </c>
+      <c r="C190" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M190" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28657/index.do</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B191" t="str">
+        <v>PATRICIA O'LEARY,</v>
+      </c>
+      <c r="C191" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M191" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28686/index.do</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B192" t="str">
+        <v>BRIGITTE DeREPENTIGNY,</v>
+      </c>
+      <c r="C192" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M192" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28687/index.do</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B193" t="str">
+        <v>3105822 CANADA INC.,</v>
+      </c>
+      <c r="C193" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M193" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28650/index.do</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B194" t="str">
+        <v>AMERICAN INCOME LIFE INSURANCE COMPANY,</v>
+      </c>
+      <c r="C194" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M194" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28677/index.do</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B195" t="str">
+        <v>KNIGHTS OF COLUMBUS,</v>
+      </c>
+      <c r="C195" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M195" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28678/index.do</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v xml:space="preserve"> T. E. Margeson</v>
+      </c>
+      <c r="B196" t="str">
+        <v>XIN WANG,</v>
+      </c>
+      <c r="C196" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M196" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28736/index.do</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v xml:space="preserve"> L.M. Little</v>
+      </c>
+      <c r="B197" t="str">
+        <v>SCOTT DAVIS, KARL J. BEAGRIE,</v>
+      </c>
+      <c r="C197" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M197" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28381/index.do</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v xml:space="preserve"> G. A. Sheridan</v>
+      </c>
+      <c r="B198" t="str">
+        <v>BRENDA EVANS,</v>
+      </c>
+      <c r="C198" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M198" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28669/index.do</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v xml:space="preserve"> E. P. Rossiter</v>
+      </c>
+      <c r="B199" t="str">
+        <v>JONATHAN WOOD,</v>
+      </c>
+      <c r="C199" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M199" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28800/index.do</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B200" t="str">
+        <v>LOGICIELS UPPERCUT INC.,</v>
+      </c>
+      <c r="C200" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M200" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28723/index.do</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Patrick Boyle</v>
+      </c>
+      <c r="B201" t="str">
+        <v>CHRISTOPH APPELT,</v>
+      </c>
+      <c r="C201" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M201" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28647/index.do</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Patrick Boyle</v>
+      </c>
+      <c r="B202" t="str">
+        <v>BRENT HARRISON,</v>
+      </c>
+      <c r="C202" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M202" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28665/index.do</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v xml:space="preserve"> Alain Tardif</v>
+      </c>
+      <c r="B203" t="str">
+        <v>GESTION E.S.C. INC.,</v>
+      </c>
+      <c r="C203" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M203" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28753/index.do</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v xml:space="preserve"> Gaston Jorré</v>
+      </c>
+      <c r="B204" t="str">
+        <v>RÉAL DAOUST,</v>
+      </c>
+      <c r="C204" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M204" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28652/index.do</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v xml:space="preserve"> Gaston Jorré</v>
+      </c>
+      <c r="B205" t="str">
+        <v>LOUIS MILLS,</v>
+      </c>
+      <c r="C205" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M205" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29820/index.do</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v xml:space="preserve"> Alain Tardif</v>
+      </c>
+      <c r="B206" t="str">
+        <v>THÉRÈSE POTVIN,</v>
+      </c>
+      <c r="C206" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M206" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28725/index.do</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
+      </c>
+      <c r="B207" t="str">
+        <v>SUZANNE DUFAULT HATTEM,</v>
+      </c>
+      <c r="C207" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M207" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28380/index.do</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v xml:space="preserve"> Alain Tardif</v>
+      </c>
+      <c r="B208" t="str">
+        <v>FRANCE DANCAUSE,</v>
+      </c>
+      <c r="C208" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M208" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28740/index.do</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v xml:space="preserve"> Alain Tardif</v>
+      </c>
+      <c r="B209" t="str">
+        <v>JULES LÉONARD,</v>
+      </c>
+      <c r="C209" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M209" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28717/index.do</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B210" t="str">
+        <v>GOFF CONSTRUCTION LIMITED,</v>
+      </c>
+      <c r="C210" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M210" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28664/index.do</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B211" t="str">
+        <v>LOUISE BOISVERT,</v>
+      </c>
+      <c r="C211" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M211" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28707/index.do</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Gerald J. Rip</v>
+      </c>
+      <c r="B212" t="str">
+        <v>GLAXOSMITHKLINE INC.,</v>
+      </c>
+      <c r="C212" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M212" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28656/index.do</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v xml:space="preserve"> T. O'Connor</v>
+      </c>
+      <c r="B213" t="str">
+        <v>MANUEL PIRES,</v>
+      </c>
+      <c r="C213" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M213" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28646/index.do</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v xml:space="preserve"> Paul Bédard</v>
+      </c>
+      <c r="B214" t="str">
+        <v>CAROLE ROBILLARD,</v>
+      </c>
+      <c r="C214" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M214" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28715/index.do</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v xml:space="preserve"> Paul Bédard</v>
+      </c>
+      <c r="B215" t="str">
+        <v>HAGOP AREVIAN,</v>
+      </c>
+      <c r="C215" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M215" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29822/index.do</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>D.W. Beaubier</v>
+      </c>
+      <c r="B216" t="str">
+        <v>COLIN G. ZIEBER,</v>
+      </c>
+      <c r="C216" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M216" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28651/index.do</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+      </c>
+      <c r="B217" t="str">
+        <v>THE CANADIAN MEDICAL PROTECTIVE ASSOCIATION,</v>
+      </c>
+      <c r="C217" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M217" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29031/index.do</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>N. Weisman</v>
+      </c>
+      <c r="B218" t="str">
+        <v>LOGITEK TECHNOLOGY LTD.,</v>
+      </c>
+      <c r="C218" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M218" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28772/index.do</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v xml:space="preserve"> Diane Campbell</v>
+      </c>
+      <c r="B219" t="str">
+        <v>489599 B.C. LTD.,</v>
+      </c>
+      <c r="C219" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M219" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29027/index.do</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v xml:space="preserve"> Paul Bédard</v>
+      </c>
+      <c r="B220" t="str">
+        <v>GHISLAIN LAPLANTE,</v>
+      </c>
+      <c r="C220" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M220" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28714/index.do</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
+      </c>
+      <c r="B221" t="str">
+        <v>LORRAINE PILETTE,</v>
+      </c>
+      <c r="C221" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M221" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28655/index.do</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v xml:space="preserve"> E. P. Rossiter</v>
+      </c>
+      <c r="B222" t="str">
+        <v>MERCHANT LAW GROUP,</v>
+      </c>
+      <c r="C222" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M222" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28713/index.do</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v xml:space="preserve"> E. P. Rossiter</v>
+      </c>
+      <c r="B223" t="str">
+        <v>CARL CURRIE,</v>
+      </c>
+      <c r="C223" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M223" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28721/index.do</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v xml:space="preserve"> Alain Tardif</v>
+      </c>
+      <c r="B224" t="str">
+        <v>INNOVATIONS ET INTÉGRATIONS BRASSICOLES INC.,</v>
+      </c>
+      <c r="C224" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M224" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28751/index.do</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>C.H. McArthur</v>
+      </c>
+      <c r="B225" t="str">
+        <v>SUKHWINDER KAUR DADWAL,</v>
+      </c>
+      <c r="C225" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M225" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28489/index.do</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>B. Paris</v>
+      </c>
+      <c r="B226" t="str">
+        <v>JOHN JAMES,</v>
+      </c>
+      <c r="C226" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M226" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28734/index.do</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B227" t="str">
+        <v>BBM CANADA</v>
+      </c>
+      <c r="C227" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M227" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28718/index.do</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B228" t="str">
+        <v>PERFECTION DAIRY GROUP LIMITED,</v>
+      </c>
+      <c r="C228" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M228" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28661/index.do</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B229" t="str">
+        <v>LYNNE FOTHERBY,</v>
+      </c>
+      <c r="C229" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M229" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28712/index.do</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>E. P. Rossiter</v>
+      </c>
+      <c r="B230" t="str">
+        <v>ELLEN REMAI,</v>
+      </c>
+      <c r="C230" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M230" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28836/index.do</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B231" t="str">
+        <v>CHRISTIAN ALCINDOR,</v>
+      </c>
+      <c r="C231" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M231" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29817/index.do</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B232" t="str">
+        <v>PARKASH KAUR CHAHAL,</v>
+      </c>
+      <c r="C232" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M232" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28709/index.do</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v xml:space="preserve"> T. E. Margeson</v>
+      </c>
+      <c r="B233" t="str">
+        <v>J. HUDON ENTERPRISES LTD.,</v>
+      </c>
+      <c r="C233" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M233" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28832/index.do</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B234" t="str">
+        <v>JEAN-CLAUDE MESSIER,</v>
+      </c>
+      <c r="C234" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M234" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28708/index.do</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B235" t="str">
+        <v>64728 MANITOBA LTD. O/A BETTER-BUY FOOD SUPPLY,</v>
+      </c>
+      <c r="C235" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M235" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28488/index.do</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v xml:space="preserve"> Judith Woods</v>
+      </c>
+      <c r="B236" t="str">
+        <v>1338664 ONTARIO LIMITED,</v>
+      </c>
+      <c r="C236" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M236" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29032/index.do</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B237" t="str">
+        <v>NEIL FILIPEK,</v>
+      </c>
+      <c r="C237" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M237" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28716/index.do</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v xml:space="preserve"> E.A. Bowie</v>
+      </c>
+      <c r="B238" t="str">
+        <v>ROBERT H. OLVER,</v>
+      </c>
+      <c r="C238" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M238" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28711/index.do</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>M.A. Mogan</v>
+      </c>
+      <c r="B239" t="str">
+        <v>KEITH MILLARD,</v>
+      </c>
+      <c r="C239" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M239" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28743/index.do</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v xml:space="preserve"> Judith Woods</v>
+      </c>
+      <c r="B240" t="str">
+        <v>EMPIRE PAVING LIMITED,</v>
+      </c>
+      <c r="C240" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M240" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28710/index.do</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+      </c>
+      <c r="B241" t="str">
+        <v>AHMED Z. BASHIR,</v>
+      </c>
+      <c r="C241" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M241" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28732/index.do</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v xml:space="preserve"> Alain Tardif</v>
+      </c>
+      <c r="B242" t="str">
+        <v>CHRISTIANE ST-JEAN,</v>
+      </c>
+      <c r="C242" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M242" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28748/index.do</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B243" t="str">
+        <v>DOUGLAS WHITFORD,</v>
+      </c>
+      <c r="C243" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M243" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28722/index.do</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>D.W. Beaubier</v>
+      </c>
+      <c r="B244" t="str">
+        <v>WEYERHAEUSER COMPANY LIMITED,</v>
+      </c>
+      <c r="C244" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M244" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28382/index.do</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v xml:space="preserve"> B. Paris</v>
+      </c>
+      <c r="B245" t="str">
+        <v>JOHN PAUL REXE,</v>
+      </c>
+      <c r="C245" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M245" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28728/index.do</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B246" t="str">
+        <v>GUY MILLAR,</v>
+      </c>
+      <c r="C246" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M246" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28726/index.do</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Diane Campbell</v>
+      </c>
+      <c r="B247" t="str">
+        <v>ALLAN WARRING,</v>
+      </c>
+      <c r="C247" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M247" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28735/index.do</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v xml:space="preserve"> Alain Tardif</v>
+      </c>
+      <c r="B248" t="str">
+        <v>CLAUDE RICARD,</v>
+      </c>
+      <c r="C248" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M248" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28742/index.do</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B249" t="str">
+        <v>ROGER LABONTÉ,</v>
+      </c>
+      <c r="C249" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M249" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28768/index.do</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B250" t="str">
+        <v>GEORGE FREDERICK DUNN,</v>
+      </c>
+      <c r="C250" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M250" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28423/index.do</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B251" t="str">
+        <v>MICHELLE M. RAMBEAU,</v>
+      </c>
+      <c r="C251" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M251" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28727/index.do</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v xml:space="preserve"> Alain Tardif</v>
+      </c>
+      <c r="B252" t="str">
+        <v>FRANÇOIS D. MÉNARD,</v>
+      </c>
+      <c r="C252" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M252" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28752/index.do</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>T.E. Margeson</v>
+      </c>
+      <c r="B253" t="str">
+        <v>GERARD NADDAF,</v>
+      </c>
+      <c r="C253" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M253" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28791/index.do</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>D.G.H. Bowman</v>
+      </c>
+      <c r="B254" t="str">
+        <v>LYNETTE L. MENSAH,</v>
+      </c>
+      <c r="C254" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M254" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28758/index.do</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v xml:space="preserve"> Robert J. Hogan</v>
+      </c>
+      <c r="B255" t="str">
+        <v>RÉAL BERNIER,</v>
+      </c>
+      <c r="C255" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M255" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28881/index.do</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>C.H. McArthur</v>
+      </c>
+      <c r="B256" t="str">
+        <v>TIMOTHY KIKOT,</v>
+      </c>
+      <c r="C256" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M256" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30365/index.do</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>M.A. Mogan</v>
+      </c>
+      <c r="B257" t="str">
+        <v>VIRGINIA GAIL REID,</v>
+      </c>
+      <c r="C257" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M257" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28745/index.do</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>L.M. Little</v>
+      </c>
+      <c r="B258" t="str">
+        <v>DEBORAH JOANNE MCDOUGALL,</v>
+      </c>
+      <c r="C258" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M258" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28913/index.do</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B259" t="str">
+        <v>MICHAEL B. LEE,</v>
+      </c>
+      <c r="C259" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M259" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28729/index.do</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B260" t="str">
+        <v>WOJCIECH ZAKRZEWSKI,</v>
+      </c>
+      <c r="C260" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M260" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28905/index.do</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B261" t="str">
+        <v>NANCY DRYDEN,</v>
+      </c>
+      <c r="C261" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M261" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28731/index.do</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v xml:space="preserve"> Patrick Boyle</v>
+      </c>
+      <c r="B262" t="str">
+        <v>MICHAEL D. ELMER,</v>
+      </c>
+      <c r="C262" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M262" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28733/index.do</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B263" t="str">
+        <v>GEORGE P. CALOGERACOS,</v>
+      </c>
+      <c r="C263" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M263" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28750/index.do</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v xml:space="preserve"> C.H. McArthur</v>
+      </c>
+      <c r="B264" t="str">
+        <v>KEN R. DREAVER,</v>
+      </c>
+      <c r="C264" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M264" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28402/index.do</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B265" t="str">
+        <v>CÉLINE ST-ANDRÉ,</v>
+      </c>
+      <c r="C265" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M265" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28769/index.do</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B266" t="str">
+        <v>JOSEPH L.J. THOMPSON,</v>
+      </c>
+      <c r="C266" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M266" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28838/index.do</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
+      </c>
+      <c r="B267" t="str">
+        <v>COLETTE LEFEBVRE,</v>
+      </c>
+      <c r="C267" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M267" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28746/index.do</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v xml:space="preserve"> François Angers</v>
+      </c>
+      <c r="B268" t="str">
+        <v>BLAJ HOSPITALITY INC,</v>
+      </c>
+      <c r="C268" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M268" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28840/index.do</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B269" t="str">
+        <v>MURIEL MARCHAND,</v>
+      </c>
+      <c r="C269" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M269" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28814/index.do</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Gerald J. Rip</v>
+      </c>
+      <c r="B270" t="str">
+        <v>L. MILTON HESS,</v>
+      </c>
+      <c r="C270" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M270" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28359/index.do</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v xml:space="preserve"> Judith Woods</v>
+      </c>
+      <c r="B271" t="str">
+        <v>M. KEITH MATTINSON,</v>
+      </c>
+      <c r="C271" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M271" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28383/index.do</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B272" t="str">
+        <v>STANTEC INC.,</v>
+      </c>
+      <c r="C272" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M272" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28744/index.do</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v xml:space="preserve"> Diane Campbell</v>
+      </c>
+      <c r="B273" t="str">
+        <v>QUY NGUYEN,</v>
+      </c>
+      <c r="C273" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M273" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28773/index.do</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v xml:space="preserve"> L.M. Little</v>
+      </c>
+      <c r="B274" t="str">
+        <v>SERGE TRAJKOVICH,</v>
+      </c>
+      <c r="C274" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M274" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28765/index.do</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v xml:space="preserve"> L.M. Little</v>
+      </c>
+      <c r="B275" t="str">
+        <v>JONAS FABER,</v>
+      </c>
+      <c r="C275" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M275" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28754/index.do</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v xml:space="preserve"> Valerie Miller</v>
+      </c>
+      <c r="B276" t="str">
+        <v>MARK BESNER,</v>
+      </c>
+      <c r="C276" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M276" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28747/index.do</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v xml:space="preserve"> Campbell J. Miller</v>
+      </c>
+      <c r="B277" t="str">
+        <v>TARA STIGEN,</v>
+      </c>
+      <c r="C277" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M277" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28757/index.do</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v xml:space="preserve"> Réal Favreau</v>
+      </c>
+      <c r="B278" t="str">
+        <v>CAROL O'LEARY,</v>
+      </c>
+      <c r="C278" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M278" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28759/index.do</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>E.A. Bowie</v>
+      </c>
+      <c r="B279" t="str">
+        <v>RUSSELL WITT,</v>
+      </c>
+      <c r="C279" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M279" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28755/index.do</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v xml:space="preserve"> Louise Lamarre Proulx</v>
+      </c>
+      <c r="B280" t="str">
+        <v>ANDRÉ BOUCHARD,</v>
+      </c>
+      <c r="C280" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M280" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28756/index.do</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>D.G.H. Bowman</v>
+      </c>
+      <c r="B281" t="str">
+        <v>JOLLY FARMER PRODUCTS INC.,</v>
+      </c>
+      <c r="C281" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M281" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28764/index.do</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v xml:space="preserve"> Wyman W. Webb</v>
+      </c>
+      <c r="B282" t="str">
+        <v>VILMA A. PASCUAL,</v>
+      </c>
+      <c r="C282" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M282" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28422/index.do</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v xml:space="preserve">JudgeName Not Found in Pattern also </v>
+      </c>
+      <c r="B283" t="str">
+        <v>KMW SERVICES INC.,</v>
+      </c>
+      <c r="C283" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M283" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/29833/index.do</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v xml:space="preserve"> Lucie Lamarre</v>
+      </c>
+      <c r="B284" t="str">
+        <v>THE ESTATE OF HENRI COUPAL,</v>
+      </c>
+      <c r="C284" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M284" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28762/index.do</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>N. Weisman</v>
+      </c>
+      <c r="B285" t="str">
+        <v>CRITICAL CONTROL SANITATION INC.,</v>
+      </c>
+      <c r="C285" t="str">
+        <v>2008</v>
+      </c>
+      <c r="M285" t="str">
+        <v>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/28795/index.do</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M164"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M285"/>
   </ignoredErrors>
 </worksheet>
 </file>